--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9808809377077909</v>
+      </c>
+      <c r="D2">
+        <v>1.003429353855562</v>
+      </c>
+      <c r="E2">
+        <v>0.989191692266272</v>
+      </c>
+      <c r="F2">
+        <v>0.9913996030750261</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.037958936551228</v>
+      </c>
+      <c r="J2">
+        <v>1.003648931997055</v>
+      </c>
+      <c r="K2">
+        <v>1.014841118195464</v>
+      </c>
+      <c r="L2">
+        <v>1.000803686376039</v>
+      </c>
+      <c r="M2">
+        <v>1.002980069859479</v>
+      </c>
+      <c r="N2">
+        <v>1.005074228600632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9918923132640995</v>
+      </c>
+      <c r="D3">
+        <v>1.012030336531148</v>
+      </c>
+      <c r="E3">
+        <v>0.9996354364694787</v>
+      </c>
+      <c r="F3">
+        <v>1.002237493635591</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.042140926894553</v>
+      </c>
+      <c r="J3">
+        <v>1.012606469003504</v>
+      </c>
+      <c r="K3">
+        <v>1.022511566698836</v>
+      </c>
+      <c r="L3">
+        <v>1.010272984080229</v>
+      </c>
+      <c r="M3">
+        <v>1.012841825143941</v>
+      </c>
+      <c r="N3">
+        <v>1.014044486337074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9986883623134245</v>
+      </c>
+      <c r="D4">
+        <v>1.017342287519306</v>
+      </c>
+      <c r="E4">
+        <v>1.006087232988575</v>
+      </c>
+      <c r="F4">
+        <v>1.008938872767567</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.044704373518995</v>
+      </c>
+      <c r="J4">
+        <v>1.018125679531017</v>
+      </c>
+      <c r="K4">
+        <v>1.027235816904466</v>
+      </c>
+      <c r="L4">
+        <v>1.016112741481306</v>
+      </c>
+      <c r="M4">
+        <v>1.018930597453664</v>
+      </c>
+      <c r="N4">
+        <v>1.019571534776598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.00147338469618</v>
+      </c>
+      <c r="D5">
+        <v>1.019519765292791</v>
+      </c>
+      <c r="E5">
+        <v>1.008732520425781</v>
+      </c>
+      <c r="F5">
+        <v>1.011687930850525</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045750557938837</v>
+      </c>
+      <c r="J5">
+        <v>1.020385161462437</v>
+      </c>
+      <c r="K5">
+        <v>1.029169335632016</v>
+      </c>
+      <c r="L5">
+        <v>1.018504696059097</v>
+      </c>
+      <c r="M5">
+        <v>1.021426195133485</v>
+      </c>
+      <c r="N5">
+        <v>1.021834225431527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.001936956538864</v>
+      </c>
+      <c r="D6">
+        <v>1.019882242096217</v>
+      </c>
+      <c r="E6">
+        <v>1.009172908813442</v>
+      </c>
+      <c r="F6">
+        <v>1.012145679172775</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045924440590826</v>
+      </c>
+      <c r="J6">
+        <v>1.020761119278372</v>
+      </c>
+      <c r="K6">
+        <v>1.029491023935071</v>
+      </c>
+      <c r="L6">
+        <v>1.018902769280693</v>
+      </c>
+      <c r="M6">
+        <v>1.021841613009625</v>
+      </c>
+      <c r="N6">
+        <v>1.022210717150684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9987258507646204</v>
+      </c>
+      <c r="D7">
+        <v>1.017371595701627</v>
+      </c>
+      <c r="E7">
+        <v>1.006122835330792</v>
+      </c>
+      <c r="F7">
+        <v>1.008975866046131</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.044718473188571</v>
+      </c>
+      <c r="J7">
+        <v>1.01815610301464</v>
+      </c>
+      <c r="K7">
+        <v>1.027261853490237</v>
+      </c>
+      <c r="L7">
+        <v>1.016144943743734</v>
+      </c>
+      <c r="M7">
+        <v>1.018964188529101</v>
+      </c>
+      <c r="N7">
+        <v>1.019602001465058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9846747877847509</v>
+      </c>
+      <c r="D8">
+        <v>1.006391826737241</v>
+      </c>
+      <c r="E8">
+        <v>0.992788593145949</v>
+      </c>
+      <c r="F8">
+        <v>0.9951309360445421</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.039403497679455</v>
+      </c>
+      <c r="J8">
+        <v>1.006737078262233</v>
+      </c>
+      <c r="K8">
+        <v>1.017485907212256</v>
+      </c>
+      <c r="L8">
+        <v>1.004067141797428</v>
+      </c>
+      <c r="M8">
+        <v>1.0063772683604</v>
+      </c>
+      <c r="N8">
+        <v>1.008166760387723</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9570295100362517</v>
+      </c>
+      <c r="D9">
+        <v>0.9848317164686882</v>
+      </c>
+      <c r="E9">
+        <v>0.9666119658580385</v>
+      </c>
+      <c r="F9">
+        <v>0.9680044012630331</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.028802668616997</v>
+      </c>
+      <c r="J9">
+        <v>0.9841965740024405</v>
+      </c>
+      <c r="K9">
+        <v>0.9981757777102702</v>
+      </c>
+      <c r="L9">
+        <v>0.9802710100039036</v>
+      </c>
+      <c r="M9">
+        <v>0.9816388304039018</v>
+      </c>
+      <c r="N9">
+        <v>0.9855942460264491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.936013196656873</v>
+      </c>
+      <c r="D10">
+        <v>0.9684929113026042</v>
+      </c>
+      <c r="E10">
+        <v>0.9467652152801429</v>
+      </c>
+      <c r="F10">
+        <v>0.9474763055462097</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.020652597232071</v>
+      </c>
+      <c r="J10">
+        <v>0.9670175201711162</v>
+      </c>
+      <c r="K10">
+        <v>0.9834553317932011</v>
+      </c>
+      <c r="L10">
+        <v>0.9621670990757493</v>
+      </c>
+      <c r="M10">
+        <v>0.9628633852964957</v>
+      </c>
+      <c r="N10">
+        <v>0.968390795968219</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9260985283431499</v>
+      </c>
+      <c r="D11">
+        <v>0.9608038023648605</v>
+      </c>
+      <c r="E11">
+        <v>0.9374188028900129</v>
+      </c>
+      <c r="F11">
+        <v>0.9378189985464697</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.016788488229328</v>
+      </c>
+      <c r="J11">
+        <v>0.958905151847503</v>
+      </c>
+      <c r="K11">
+        <v>0.9765047942141696</v>
+      </c>
+      <c r="L11">
+        <v>0.953625969481687</v>
+      </c>
+      <c r="M11">
+        <v>0.9540172199454755</v>
+      </c>
+      <c r="N11">
+        <v>0.9602669071510846</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9222701073488135</v>
+      </c>
+      <c r="D12">
+        <v>0.9578383222740934</v>
+      </c>
+      <c r="E12">
+        <v>0.9338127141487573</v>
+      </c>
+      <c r="F12">
+        <v>0.9340945313868171</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.015293807260015</v>
+      </c>
+      <c r="J12">
+        <v>0.9557717460154345</v>
+      </c>
+      <c r="K12">
+        <v>0.9738204447259529</v>
+      </c>
+      <c r="L12">
+        <v>0.9503281867268754</v>
+      </c>
+      <c r="M12">
+        <v>0.9506035353257833</v>
+      </c>
+      <c r="N12">
+        <v>0.9571290515233282</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9230983581002244</v>
+      </c>
+      <c r="D13">
+        <v>0.9584797078983538</v>
+      </c>
+      <c r="E13">
+        <v>0.9345927261415387</v>
+      </c>
+      <c r="F13">
+        <v>0.934900076994172</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.015617282381653</v>
+      </c>
+      <c r="J13">
+        <v>0.9564496714281924</v>
+      </c>
+      <c r="K13">
+        <v>0.9744011982449585</v>
+      </c>
+      <c r="L13">
+        <v>0.9510416197328524</v>
+      </c>
+      <c r="M13">
+        <v>0.9513419559812454</v>
+      </c>
+      <c r="N13">
+        <v>0.9578079396679313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9257852008021409</v>
+      </c>
+      <c r="D14">
+        <v>0.9605610233648871</v>
+      </c>
+      <c r="E14">
+        <v>0.9371236101933288</v>
+      </c>
+      <c r="F14">
+        <v>0.937514083281914</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.016666210395214</v>
+      </c>
+      <c r="J14">
+        <v>0.9586487227435673</v>
+      </c>
+      <c r="K14">
+        <v>0.9762851074547088</v>
+      </c>
+      <c r="L14">
+        <v>0.9533560632034089</v>
+      </c>
+      <c r="M14">
+        <v>0.9537377892801961</v>
+      </c>
+      <c r="N14">
+        <v>0.9600101138884087</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9274205378577334</v>
+      </c>
+      <c r="D15">
+        <v>0.9618282980523394</v>
+      </c>
+      <c r="E15">
+        <v>0.9386644167954618</v>
+      </c>
+      <c r="F15">
+        <v>0.9391057023005043</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.01730430674727</v>
+      </c>
+      <c r="J15">
+        <v>0.9599870569916086</v>
+      </c>
+      <c r="K15">
+        <v>0.9774316921754092</v>
+      </c>
+      <c r="L15">
+        <v>0.9547647863080315</v>
+      </c>
+      <c r="M15">
+        <v>0.9551962992678913</v>
+      </c>
+      <c r="N15">
+        <v>0.9613503487245911</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9366521977954677</v>
+      </c>
+      <c r="D16">
+        <v>0.9689889154463462</v>
+      </c>
+      <c r="E16">
+        <v>0.9473679606349356</v>
+      </c>
+      <c r="F16">
+        <v>0.9480993089064628</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.020901270565911</v>
+      </c>
+      <c r="J16">
+        <v>0.9675402222900286</v>
+      </c>
+      <c r="K16">
+        <v>0.9839032042349781</v>
+      </c>
+      <c r="L16">
+        <v>0.9627175921506598</v>
+      </c>
+      <c r="M16">
+        <v>0.9634337860513942</v>
+      </c>
+      <c r="N16">
+        <v>0.9689142403840951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9422104072503621</v>
+      </c>
+      <c r="D17">
+        <v>0.9733054477701419</v>
+      </c>
+      <c r="E17">
+        <v>0.9526126654403521</v>
+      </c>
+      <c r="F17">
+        <v>0.9535213931558689</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.023062207033572</v>
+      </c>
+      <c r="J17">
+        <v>0.9720859768764665</v>
+      </c>
+      <c r="K17">
+        <v>0.9877982982935213</v>
+      </c>
+      <c r="L17">
+        <v>0.9675059171428716</v>
+      </c>
+      <c r="M17">
+        <v>0.9683965816322614</v>
+      </c>
+      <c r="N17">
+        <v>0.9734664504634509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9453756973631225</v>
+      </c>
+      <c r="D18">
+        <v>0.9757653041395143</v>
+      </c>
+      <c r="E18">
+        <v>0.9556009003598617</v>
+      </c>
+      <c r="F18">
+        <v>0.956611600556039</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.024291036903067</v>
+      </c>
+      <c r="J18">
+        <v>0.9746739441636871</v>
+      </c>
+      <c r="K18">
+        <v>0.9900158966959376</v>
+      </c>
+      <c r="L18">
+        <v>0.9702327110751406</v>
+      </c>
+      <c r="M18">
+        <v>0.9712238020269184</v>
+      </c>
+      <c r="N18">
+        <v>0.9760580929610633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9464425725925557</v>
+      </c>
+      <c r="D19">
+        <v>0.9765946758096914</v>
+      </c>
+      <c r="E19">
+        <v>0.9566083386036777</v>
+      </c>
+      <c r="F19">
+        <v>0.9576535694757893</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.024704910324293</v>
+      </c>
+      <c r="J19">
+        <v>0.975546096078678</v>
+      </c>
+      <c r="K19">
+        <v>0.9907632393517239</v>
+      </c>
+      <c r="L19">
+        <v>0.9711517705212938</v>
+      </c>
+      <c r="M19">
+        <v>0.9721768890626316</v>
+      </c>
+      <c r="N19">
+        <v>0.9769314834318109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9416221472625835</v>
+      </c>
+      <c r="D20">
+        <v>0.9728484226726392</v>
+      </c>
+      <c r="E20">
+        <v>0.952057428535243</v>
+      </c>
+      <c r="F20">
+        <v>0.9529472824985539</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.022833685758006</v>
+      </c>
+      <c r="J20">
+        <v>0.9716049478854948</v>
+      </c>
+      <c r="K20">
+        <v>0.9873861142271918</v>
+      </c>
+      <c r="L20">
+        <v>0.9669991433289586</v>
+      </c>
+      <c r="M20">
+        <v>0.967871230210045</v>
+      </c>
+      <c r="N20">
+        <v>0.9729847383561373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9249982353253832</v>
+      </c>
+      <c r="D21">
+        <v>0.9599513102006542</v>
+      </c>
+      <c r="E21">
+        <v>0.9363822410335179</v>
+      </c>
+      <c r="F21">
+        <v>0.9367483215761025</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.016359052114063</v>
+      </c>
+      <c r="J21">
+        <v>0.9580046519341301</v>
+      </c>
+      <c r="K21">
+        <v>0.9757333275248903</v>
+      </c>
+      <c r="L21">
+        <v>0.9526781617231708</v>
+      </c>
+      <c r="M21">
+        <v>0.9530359965507685</v>
+      </c>
+      <c r="N21">
+        <v>0.959365128424546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9136861590485951</v>
+      </c>
+      <c r="D22">
+        <v>0.9511968712678065</v>
+      </c>
+      <c r="E22">
+        <v>0.9257332726648226</v>
+      </c>
+      <c r="F22">
+        <v>0.9257528914385083</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.011938021293115</v>
+      </c>
+      <c r="J22">
+        <v>0.9487448096549177</v>
+      </c>
+      <c r="K22">
+        <v>0.9678013486192881</v>
+      </c>
+      <c r="L22">
+        <v>0.9429349606508349</v>
+      </c>
+      <c r="M22">
+        <v>0.9429541022832394</v>
+      </c>
+      <c r="N22">
+        <v>0.9500921361071784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9197741506137208</v>
+      </c>
+      <c r="D23">
+        <v>0.9559060795412346</v>
+      </c>
+      <c r="E23">
+        <v>0.9314625922932156</v>
+      </c>
+      <c r="F23">
+        <v>0.9316677159782001</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.014318649971009</v>
+      </c>
+      <c r="J23">
+        <v>0.9537286900764417</v>
+      </c>
+      <c r="K23">
+        <v>0.9720702943651818</v>
+      </c>
+      <c r="L23">
+        <v>0.948178305724531</v>
+      </c>
+      <c r="M23">
+        <v>0.9483786401544788</v>
+      </c>
+      <c r="N23">
+        <v>0.9550830942105599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9418881920283007</v>
+      </c>
+      <c r="D24">
+        <v>0.973055110342719</v>
+      </c>
+      <c r="E24">
+        <v>0.9523085337887868</v>
+      </c>
+      <c r="F24">
+        <v>0.9532069205554872</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.022937041708592</v>
+      </c>
+      <c r="J24">
+        <v>0.9718224990294714</v>
+      </c>
+      <c r="K24">
+        <v>0.9875725292449696</v>
+      </c>
+      <c r="L24">
+        <v>0.9672283356095993</v>
+      </c>
+      <c r="M24">
+        <v>0.9681088210179901</v>
+      </c>
+      <c r="N24">
+        <v>0.9732025984476919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9645764768911701</v>
+      </c>
+      <c r="D25">
+        <v>0.9907107173087107</v>
+      </c>
+      <c r="E25">
+        <v>0.9737502456361573</v>
+      </c>
+      <c r="F25">
+        <v>0.9753954838221361</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.031712327245317</v>
+      </c>
+      <c r="J25">
+        <v>0.9903577585687826</v>
+      </c>
+      <c r="K25">
+        <v>1.00345496962683</v>
+      </c>
+      <c r="L25">
+        <v>0.986770198503681</v>
+      </c>
+      <c r="M25">
+        <v>0.9883881520876348</v>
+      </c>
+      <c r="N25">
+        <v>0.9917641801815732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9808809377077909</v>
+        <v>1.028263467882307</v>
       </c>
       <c r="D2">
-        <v>1.003429353855562</v>
+        <v>1.048278833891339</v>
       </c>
       <c r="E2">
-        <v>0.989191692266272</v>
+        <v>1.046956247005333</v>
       </c>
       <c r="F2">
-        <v>0.9913996030750261</v>
+        <v>1.055781115886834</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037958936551228</v>
+        <v>1.06329994287595</v>
       </c>
       <c r="J2">
-        <v>1.003648931997055</v>
+        <v>1.049630478518516</v>
       </c>
       <c r="K2">
-        <v>1.014841118195464</v>
+        <v>1.05910417618688</v>
       </c>
       <c r="L2">
-        <v>1.000803686376039</v>
+        <v>1.0577979866668</v>
       </c>
       <c r="M2">
-        <v>1.002980069859479</v>
+        <v>1.066514411499786</v>
       </c>
       <c r="N2">
-        <v>1.005074228600632</v>
+        <v>1.020161167106474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9918923132640995</v>
+        <v>1.032302623673301</v>
       </c>
       <c r="D3">
-        <v>1.012030336531148</v>
+        <v>1.051458937967346</v>
       </c>
       <c r="E3">
-        <v>0.9996354364694787</v>
+        <v>1.050553346490614</v>
       </c>
       <c r="F3">
-        <v>1.002237493635591</v>
+        <v>1.059432306210071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042140926894553</v>
+        <v>1.064758349899625</v>
       </c>
       <c r="J3">
-        <v>1.012606469003504</v>
+        <v>1.051949812919154</v>
       </c>
       <c r="K3">
-        <v>1.022511566698836</v>
+        <v>1.061473154448624</v>
       </c>
       <c r="L3">
-        <v>1.010272984080229</v>
+        <v>1.060577804229138</v>
       </c>
       <c r="M3">
-        <v>1.012841825143941</v>
+        <v>1.069357282077733</v>
       </c>
       <c r="N3">
-        <v>1.014044486337074</v>
+        <v>1.020945130751831</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9986883623134245</v>
+        <v>1.034868436537718</v>
       </c>
       <c r="D4">
-        <v>1.017342287519306</v>
+        <v>1.053481292082075</v>
       </c>
       <c r="E4">
-        <v>1.006087232988575</v>
+        <v>1.05284315236162</v>
       </c>
       <c r="F4">
-        <v>1.008938872767567</v>
+        <v>1.061756102757691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044704373518995</v>
+        <v>1.065675459746595</v>
       </c>
       <c r="J4">
-        <v>1.018125679531017</v>
+        <v>1.053420388101436</v>
       </c>
       <c r="K4">
-        <v>1.027235816904466</v>
+        <v>1.062974406964348</v>
       </c>
       <c r="L4">
-        <v>1.016112741481306</v>
+        <v>1.062343045775709</v>
       </c>
       <c r="M4">
-        <v>1.018930597453664</v>
+        <v>1.071162221138497</v>
       </c>
       <c r="N4">
-        <v>1.019571534776598</v>
+        <v>1.021442077355104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00147338469618</v>
+        <v>1.035936020759798</v>
       </c>
       <c r="D5">
-        <v>1.019519765292791</v>
+        <v>1.054323254513477</v>
       </c>
       <c r="E5">
-        <v>1.008732520425781</v>
+        <v>1.053797018780323</v>
       </c>
       <c r="F5">
-        <v>1.011687930850525</v>
+        <v>1.062724021005966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045750557938837</v>
+        <v>1.06605478240155</v>
       </c>
       <c r="J5">
-        <v>1.020385161462437</v>
+        <v>1.054031580387224</v>
       </c>
       <c r="K5">
-        <v>1.029169335632016</v>
+        <v>1.063598151779807</v>
       </c>
       <c r="L5">
-        <v>1.018504696059097</v>
+        <v>1.063077356200928</v>
       </c>
       <c r="M5">
-        <v>1.021426195133485</v>
+        <v>1.071912960699829</v>
       </c>
       <c r="N5">
-        <v>1.021834225431527</v>
+        <v>1.021648582382804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001936956538864</v>
+        <v>1.036114633021824</v>
       </c>
       <c r="D6">
-        <v>1.019882242096217</v>
+        <v>1.054464147478507</v>
       </c>
       <c r="E6">
-        <v>1.009172908813442</v>
+        <v>1.053956670673988</v>
       </c>
       <c r="F6">
-        <v>1.012145679172775</v>
+        <v>1.062886018425893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045924440590826</v>
+        <v>1.066118110732813</v>
       </c>
       <c r="J6">
-        <v>1.020761119278372</v>
+        <v>1.054133794946966</v>
       </c>
       <c r="K6">
-        <v>1.029491023935071</v>
+        <v>1.063702453831999</v>
       </c>
       <c r="L6">
-        <v>1.018902769280693</v>
+        <v>1.063200199137717</v>
       </c>
       <c r="M6">
-        <v>1.021841613009625</v>
+        <v>1.07203854704897</v>
       </c>
       <c r="N6">
-        <v>1.022210717150684</v>
+        <v>1.021683115830725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987258507646204</v>
+        <v>1.03488274473764</v>
       </c>
       <c r="D7">
-        <v>1.017371595701627</v>
+        <v>1.05349257447757</v>
       </c>
       <c r="E7">
-        <v>1.006122835330792</v>
+        <v>1.052855932071423</v>
       </c>
       <c r="F7">
-        <v>1.008975866046131</v>
+        <v>1.06176907115826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044718473188571</v>
+        <v>1.065680552583778</v>
       </c>
       <c r="J7">
-        <v>1.01815610301464</v>
+        <v>1.05342858228911</v>
       </c>
       <c r="K7">
-        <v>1.027261853490237</v>
+        <v>1.062982770229609</v>
       </c>
       <c r="L7">
-        <v>1.016144943743734</v>
+        <v>1.062352888020089</v>
       </c>
       <c r="M7">
-        <v>1.018964188529101</v>
+        <v>1.071172283924849</v>
       </c>
       <c r="N7">
-        <v>1.019602001465058</v>
+        <v>1.021444846080127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9846747877847509</v>
+        <v>1.029638635341652</v>
       </c>
       <c r="D8">
-        <v>1.006391826737241</v>
+        <v>1.04936103722246</v>
       </c>
       <c r="E8">
-        <v>0.992788593145949</v>
+        <v>1.048179888689963</v>
       </c>
       <c r="F8">
-        <v>0.9951309360445421</v>
+        <v>1.057023249273237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039403497679455</v>
+        <v>1.063798402826525</v>
       </c>
       <c r="J8">
-        <v>1.006737078262233</v>
+        <v>1.050420676262835</v>
       </c>
       <c r="K8">
-        <v>1.017485907212256</v>
+        <v>1.059911451751292</v>
       </c>
       <c r="L8">
-        <v>1.004067141797428</v>
+        <v>1.058744507783578</v>
       </c>
       <c r="M8">
-        <v>1.0063772683604</v>
+        <v>1.067482472388536</v>
       </c>
       <c r="N8">
-        <v>1.008166760387723</v>
+        <v>1.020428288304776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9570295100362517</v>
+        <v>1.020014946308494</v>
       </c>
       <c r="D9">
-        <v>0.9848317164686882</v>
+        <v>1.041798609528699</v>
       </c>
       <c r="E9">
-        <v>0.9666119658580385</v>
+        <v>1.039638150846242</v>
       </c>
       <c r="F9">
-        <v>0.9680044012630331</v>
+        <v>1.04835063794339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028802668616997</v>
+        <v>1.060272021131179</v>
       </c>
       <c r="J9">
-        <v>0.9841965740024405</v>
+        <v>1.044880196938353</v>
       </c>
       <c r="K9">
-        <v>0.9981757777102702</v>
+        <v>1.054248074766769</v>
       </c>
       <c r="L9">
-        <v>0.9802710100039036</v>
+        <v>1.052119271934933</v>
       </c>
       <c r="M9">
-        <v>0.9816388304039018</v>
+        <v>1.060705111045247</v>
       </c>
       <c r="N9">
-        <v>0.9855942460264491</v>
+        <v>1.018554951686353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.936013196656873</v>
+        <v>1.013316838222179</v>
       </c>
       <c r="D10">
-        <v>0.9684929113026042</v>
+        <v>1.036550956906045</v>
       </c>
       <c r="E10">
-        <v>0.9467652152801429</v>
+        <v>1.033721870733205</v>
       </c>
       <c r="F10">
-        <v>0.9474763055462097</v>
+        <v>1.042341521893221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020652597232071</v>
+        <v>1.057770835476104</v>
       </c>
       <c r="J10">
-        <v>0.9670175201711162</v>
+        <v>1.041011887047953</v>
       </c>
       <c r="K10">
-        <v>0.9834553317932011</v>
+        <v>1.050290209248293</v>
       </c>
       <c r="L10">
-        <v>0.9621670990757493</v>
+        <v>1.047507838043486</v>
       </c>
       <c r="M10">
-        <v>0.9628633852964957</v>
+        <v>1.055986173620953</v>
       </c>
       <c r="N10">
-        <v>0.968390795968219</v>
+        <v>1.017246611596108</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9260985283431499</v>
+        <v>1.01034357724778</v>
       </c>
       <c r="D11">
-        <v>0.9608038023648605</v>
+        <v>1.034225905442946</v>
       </c>
       <c r="E11">
-        <v>0.9374188028900129</v>
+        <v>1.031102981692096</v>
       </c>
       <c r="F11">
-        <v>0.9378189985464697</v>
+        <v>1.039681046143925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016788488229328</v>
+        <v>1.056649952315003</v>
       </c>
       <c r="J11">
-        <v>0.958905151847503</v>
+        <v>1.039292293547989</v>
       </c>
       <c r="K11">
-        <v>0.9765047942141696</v>
+        <v>1.048530000911112</v>
       </c>
       <c r="L11">
-        <v>0.953625969481687</v>
+        <v>1.045461248291</v>
       </c>
       <c r="M11">
-        <v>0.9540172199454755</v>
+        <v>1.053891523521236</v>
       </c>
       <c r="N11">
-        <v>0.9602669071510846</v>
+        <v>1.016664959456042</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9222701073488135</v>
+        <v>1.009227676760957</v>
       </c>
       <c r="D12">
-        <v>0.9578383222740934</v>
+        <v>1.033353994554103</v>
       </c>
       <c r="E12">
-        <v>0.9338127141487573</v>
+        <v>1.030121225359623</v>
       </c>
       <c r="F12">
-        <v>0.9340945313868171</v>
+        <v>1.03868362847399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015293807260015</v>
+        <v>1.056227718957673</v>
       </c>
       <c r="J12">
-        <v>0.9557717460154345</v>
+        <v>1.038646574748652</v>
       </c>
       <c r="K12">
-        <v>0.9738204447259529</v>
+        <v>1.04786891756406</v>
       </c>
       <c r="L12">
-        <v>0.9503281867268754</v>
+        <v>1.044693240859263</v>
       </c>
       <c r="M12">
-        <v>0.9506035353257833</v>
+        <v>1.053105431400863</v>
       </c>
       <c r="N12">
-        <v>0.9571290515233282</v>
+        <v>1.01644654115299</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9230983581002244</v>
+        <v>1.009467570609046</v>
       </c>
       <c r="D13">
-        <v>0.9584797078983538</v>
+        <v>1.033541403130658</v>
       </c>
       <c r="E13">
-        <v>0.9345927261415387</v>
+        <v>1.03033222875866</v>
       </c>
       <c r="F13">
-        <v>0.934900076994172</v>
+        <v>1.038898001068715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015617282381653</v>
+        <v>1.056318559215217</v>
       </c>
       <c r="J13">
-        <v>0.9564496714281924</v>
+        <v>1.038785404499661</v>
       </c>
       <c r="K13">
-        <v>0.9744011982449585</v>
+        <v>1.048011055700134</v>
       </c>
       <c r="L13">
-        <v>0.9510416197328524</v>
+        <v>1.044858340117528</v>
       </c>
       <c r="M13">
-        <v>0.9513419559812454</v>
+        <v>1.053274420526366</v>
       </c>
       <c r="N13">
-        <v>0.9578079396679313</v>
+        <v>1.016493501283537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9257852008021409</v>
+        <v>1.010251574386191</v>
       </c>
       <c r="D14">
-        <v>0.9605610233648871</v>
+        <v>1.034154004106675</v>
       </c>
       <c r="E14">
-        <v>0.9371236101933288</v>
+        <v>1.031022015113289</v>
       </c>
       <c r="F14">
-        <v>0.937514083281914</v>
+        <v>1.039598789396843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016666210395214</v>
+        <v>1.056615171676881</v>
       </c>
       <c r="J14">
-        <v>0.9586487227435673</v>
+        <v>1.039239062440736</v>
       </c>
       <c r="K14">
-        <v>0.9762851074547088</v>
+        <v>1.048475505458871</v>
       </c>
       <c r="L14">
-        <v>0.9533560632034089</v>
+        <v>1.045397925912</v>
       </c>
       <c r="M14">
-        <v>0.9537377892801961</v>
+        <v>1.053826711043664</v>
       </c>
       <c r="N14">
-        <v>0.9600101138884087</v>
+        <v>1.016646953772354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9274205378577334</v>
+        <v>1.010733084521825</v>
       </c>
       <c r="D15">
-        <v>0.9618282980523394</v>
+        <v>1.034530339267984</v>
       </c>
       <c r="E15">
-        <v>0.9386644167954618</v>
+        <v>1.031445812212416</v>
       </c>
       <c r="F15">
-        <v>0.9391057023005043</v>
+        <v>1.040029336620728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01730430674727</v>
+        <v>1.056797138065154</v>
       </c>
       <c r="J15">
-        <v>0.9599870569916086</v>
+        <v>1.039517641620083</v>
       </c>
       <c r="K15">
-        <v>0.9774316921754092</v>
+        <v>1.048760696870221</v>
       </c>
       <c r="L15">
-        <v>0.9547647863080315</v>
+        <v>1.045729337059201</v>
       </c>
       <c r="M15">
-        <v>0.9551962992678913</v>
+        <v>1.054165918939817</v>
       </c>
       <c r="N15">
-        <v>0.9613503487245911</v>
+        <v>1.016741184405425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9366521977954677</v>
+        <v>1.013512581631797</v>
       </c>
       <c r="D16">
-        <v>0.9689889154463462</v>
+        <v>1.036704121146778</v>
       </c>
       <c r="E16">
-        <v>0.9473679606349356</v>
+        <v>1.033894440636954</v>
       </c>
       <c r="F16">
-        <v>0.9480993089064628</v>
+        <v>1.042516822048944</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020901270565911</v>
+        <v>1.05784441043674</v>
       </c>
       <c r="J16">
-        <v>0.9675402222900286</v>
+        <v>1.041125047311301</v>
       </c>
       <c r="K16">
-        <v>0.9839032042349781</v>
+        <v>1.050406026079821</v>
       </c>
       <c r="L16">
-        <v>0.9627175921506598</v>
+        <v>1.047642586350719</v>
       </c>
       <c r="M16">
-        <v>0.9634337860513942</v>
+        <v>1.056124079204138</v>
       </c>
       <c r="N16">
-        <v>0.9689142403840951</v>
+        <v>1.017284887271171</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9422104072503621</v>
+        <v>1.01523618780024</v>
       </c>
       <c r="D17">
-        <v>0.9733054477701419</v>
+        <v>1.038053302493545</v>
       </c>
       <c r="E17">
-        <v>0.9526126654403521</v>
+        <v>1.035414833998642</v>
       </c>
       <c r="F17">
-        <v>0.9535213931558689</v>
+        <v>1.044061213848621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023062207033572</v>
+        <v>1.058491064525497</v>
       </c>
       <c r="J17">
-        <v>0.9720859768764665</v>
+        <v>1.04212119574042</v>
       </c>
       <c r="K17">
-        <v>0.9877982982935213</v>
+        <v>1.051425469484221</v>
       </c>
       <c r="L17">
-        <v>0.9675059171428716</v>
+        <v>1.048829155151993</v>
       </c>
       <c r="M17">
-        <v>0.9683965816322614</v>
+        <v>1.057338410904752</v>
       </c>
       <c r="N17">
-        <v>0.9734664504634509</v>
+        <v>1.017621822196865</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9453756973631225</v>
+        <v>1.016234539087076</v>
       </c>
       <c r="D18">
-        <v>0.9757653041395143</v>
+        <v>1.038835189226782</v>
       </c>
       <c r="E18">
-        <v>0.9556009003598617</v>
+        <v>1.036296172931005</v>
       </c>
       <c r="F18">
-        <v>0.956611600556039</v>
+        <v>1.04495641712333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024291036903067</v>
+        <v>1.058864608773106</v>
       </c>
       <c r="J18">
-        <v>0.9746739441636871</v>
+        <v>1.042697950189701</v>
       </c>
       <c r="K18">
-        <v>0.9900158966959376</v>
+        <v>1.052015634454987</v>
       </c>
       <c r="L18">
-        <v>0.9702327110751406</v>
+        <v>1.049516478126102</v>
       </c>
       <c r="M18">
-        <v>0.9712238020269184</v>
+        <v>1.058041782175658</v>
       </c>
       <c r="N18">
-        <v>0.9760580929610633</v>
+        <v>1.01781689718662</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9464425725925557</v>
+        <v>1.016573779820567</v>
       </c>
       <c r="D19">
-        <v>0.9765946758096914</v>
+        <v>1.039100943183165</v>
       </c>
       <c r="E19">
-        <v>0.9566083386036777</v>
+        <v>1.036595769028719</v>
       </c>
       <c r="F19">
-        <v>0.9576535694757893</v>
+        <v>1.045260718119233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024704910324293</v>
+        <v>1.058991366508804</v>
       </c>
       <c r="J19">
-        <v>0.975546096078678</v>
+        <v>1.042893890650736</v>
       </c>
       <c r="K19">
-        <v>0.9907632393517239</v>
+        <v>1.052216117601451</v>
       </c>
       <c r="L19">
-        <v>0.9711517705212938</v>
+        <v>1.049750035996403</v>
       </c>
       <c r="M19">
-        <v>0.9721768890626316</v>
+        <v>1.05828078762646</v>
       </c>
       <c r="N19">
-        <v>0.9769314834318109</v>
+        <v>1.017883168930793</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9416221472625835</v>
+        <v>1.015051988920275</v>
       </c>
       <c r="D20">
-        <v>0.9728484226726392</v>
+        <v>1.037909074790474</v>
       </c>
       <c r="E20">
-        <v>0.952057428535243</v>
+        <v>1.035252279941096</v>
       </c>
       <c r="F20">
-        <v>0.9529472824985539</v>
+        <v>1.043896098838369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022833685758006</v>
+        <v>1.058422062382741</v>
       </c>
       <c r="J20">
-        <v>0.9716049478854948</v>
+        <v>1.042014763370936</v>
       </c>
       <c r="K20">
-        <v>0.9873861142271918</v>
+        <v>1.051316556114438</v>
       </c>
       <c r="L20">
-        <v>0.9669991433289586</v>
+        <v>1.048702344550984</v>
       </c>
       <c r="M20">
-        <v>0.967871230210045</v>
+        <v>1.05720863668218</v>
       </c>
       <c r="N20">
-        <v>0.9729847383561373</v>
+        <v>1.017585823262579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249982353253832</v>
+        <v>1.010021026754444</v>
       </c>
       <c r="D21">
-        <v>0.9599513102006542</v>
+        <v>1.033973839985382</v>
       </c>
       <c r="E21">
-        <v>0.9363822410335179</v>
+        <v>1.030819141611967</v>
       </c>
       <c r="F21">
-        <v>0.9367483215761025</v>
+        <v>1.039392682047619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016359052114063</v>
+        <v>1.056527990891684</v>
       </c>
       <c r="J21">
-        <v>0.9580046519341301</v>
+        <v>1.039105666693228</v>
       </c>
       <c r="K21">
-        <v>0.9757333275248903</v>
+        <v>1.048338939494786</v>
       </c>
       <c r="L21">
-        <v>0.9526781617231708</v>
+        <v>1.045239249763346</v>
       </c>
       <c r="M21">
-        <v>0.9530359965507685</v>
+        <v>1.053664300150482</v>
       </c>
       <c r="N21">
-        <v>0.959365128424546</v>
+        <v>1.016601831952102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9136861590485951</v>
+        <v>1.006791039248218</v>
       </c>
       <c r="D22">
-        <v>0.9511968712678065</v>
+        <v>1.031451487327792</v>
       </c>
       <c r="E22">
-        <v>0.9257332726648226</v>
+        <v>1.027979652706845</v>
       </c>
       <c r="F22">
-        <v>0.9257528914385083</v>
+        <v>1.03650776410343</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011938021293115</v>
+        <v>1.055302941965285</v>
       </c>
       <c r="J22">
-        <v>0.9487448096549177</v>
+        <v>1.037236033654191</v>
       </c>
       <c r="K22">
-        <v>0.9678013486192881</v>
+        <v>1.046424613343955</v>
       </c>
       <c r="L22">
-        <v>0.9429349606508349</v>
+        <v>1.043016484138868</v>
       </c>
       <c r="M22">
-        <v>0.9429541022832394</v>
+        <v>1.051389103746861</v>
       </c>
       <c r="N22">
-        <v>0.9500921361071784</v>
+        <v>1.015969413637135</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9197741506137208</v>
+        <v>1.008509840109715</v>
       </c>
       <c r="D23">
-        <v>0.9559060795412346</v>
+        <v>1.03279331821252</v>
       </c>
       <c r="E23">
-        <v>0.9314625922932156</v>
+        <v>1.029490009021233</v>
       </c>
       <c r="F23">
-        <v>0.9316677159782001</v>
+        <v>1.038042322907009</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014318649971009</v>
+        <v>1.055955672674254</v>
       </c>
       <c r="J23">
-        <v>0.9537286900764417</v>
+        <v>1.038231106950131</v>
       </c>
       <c r="K23">
-        <v>0.9720702943651818</v>
+        <v>1.047443532919731</v>
       </c>
       <c r="L23">
-        <v>0.948178305724531</v>
+        <v>1.044199231019705</v>
       </c>
       <c r="M23">
-        <v>0.9483786401544788</v>
+        <v>1.052599775296835</v>
       </c>
       <c r="N23">
-        <v>0.9550830942105599</v>
+        <v>1.016306005961473</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9418881920283007</v>
+        <v>1.015135242055444</v>
       </c>
       <c r="D24">
-        <v>0.973055110342719</v>
+        <v>1.037974260717498</v>
       </c>
       <c r="E24">
-        <v>0.9523085337887868</v>
+        <v>1.035325748030987</v>
       </c>
       <c r="F24">
-        <v>0.9532069205554872</v>
+        <v>1.043970724524834</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022937041708592</v>
+        <v>1.058453252709365</v>
       </c>
       <c r="J24">
-        <v>0.9718224990294714</v>
+        <v>1.042062868789742</v>
       </c>
       <c r="K24">
-        <v>0.9875725292449696</v>
+        <v>1.051365783137444</v>
       </c>
       <c r="L24">
-        <v>0.9672283356095993</v>
+        <v>1.048759659558933</v>
       </c>
       <c r="M24">
-        <v>0.9681088210179901</v>
+        <v>1.057267291271844</v>
       </c>
       <c r="N24">
-        <v>0.9732025984476919</v>
+        <v>1.017602094116345</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9645764768911701</v>
+        <v>1.02255075096335</v>
       </c>
       <c r="D25">
-        <v>0.9907107173087107</v>
+        <v>1.043788740986593</v>
       </c>
       <c r="E25">
-        <v>0.9737502456361573</v>
+        <v>1.041884048213553</v>
       </c>
       <c r="F25">
-        <v>0.9753954838221361</v>
+        <v>1.050631333744898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031712327245317</v>
+        <v>1.061209453383236</v>
       </c>
       <c r="J25">
-        <v>0.9903577585687826</v>
+        <v>1.046342316801004</v>
       </c>
       <c r="K25">
-        <v>1.00345496962683</v>
+        <v>1.05574330118736</v>
       </c>
       <c r="L25">
-        <v>0.986770198503681</v>
+        <v>1.053865188426562</v>
       </c>
       <c r="M25">
-        <v>0.9883881520876348</v>
+        <v>1.062491406916651</v>
       </c>
       <c r="N25">
-        <v>0.9917641801815732</v>
+        <v>1.019049402771735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028263467882307</v>
+        <v>1.050185454231615</v>
       </c>
       <c r="D2">
-        <v>1.048278833891339</v>
+        <v>1.059304086085447</v>
       </c>
       <c r="E2">
-        <v>1.046956247005333</v>
+        <v>1.063983032370308</v>
       </c>
       <c r="F2">
-        <v>1.055781115886834</v>
+        <v>1.071705009219449</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06329994287595</v>
+        <v>1.051694525032248</v>
       </c>
       <c r="J2">
-        <v>1.049630478518516</v>
+        <v>1.055219944866521</v>
       </c>
       <c r="K2">
-        <v>1.05910417618688</v>
+        <v>1.062033955755731</v>
       </c>
       <c r="L2">
-        <v>1.0577979866668</v>
+        <v>1.066700198581982</v>
       </c>
       <c r="M2">
-        <v>1.066514411499786</v>
+        <v>1.074401472400465</v>
       </c>
       <c r="N2">
-        <v>1.020161167106474</v>
+        <v>1.022225663660216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.032302623673301</v>
+        <v>1.051046424322753</v>
       </c>
       <c r="D3">
-        <v>1.051458937967346</v>
+        <v>1.060002788512794</v>
       </c>
       <c r="E3">
-        <v>1.050553346490614</v>
+        <v>1.064799386103898</v>
       </c>
       <c r="F3">
-        <v>1.059432306210071</v>
+        <v>1.072530654749289</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064758349899625</v>
+        <v>1.051948241710204</v>
       </c>
       <c r="J3">
-        <v>1.051949812919154</v>
+        <v>1.055730928409041</v>
       </c>
       <c r="K3">
-        <v>1.061473154448624</v>
+        <v>1.062547153733213</v>
       </c>
       <c r="L3">
-        <v>1.060577804229138</v>
+        <v>1.067331665881884</v>
       </c>
       <c r="M3">
-        <v>1.069357282077733</v>
+        <v>1.075043699842557</v>
       </c>
       <c r="N3">
-        <v>1.020945130751831</v>
+        <v>1.022397244018378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034868436537718</v>
+        <v>1.051604179609631</v>
       </c>
       <c r="D4">
-        <v>1.053481292082075</v>
+        <v>1.060455425350396</v>
       </c>
       <c r="E4">
-        <v>1.05284315236162</v>
+        <v>1.065328571255784</v>
       </c>
       <c r="F4">
-        <v>1.061756102757691</v>
+        <v>1.073065807134554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065675459746595</v>
+        <v>1.052111458659547</v>
       </c>
       <c r="J4">
-        <v>1.053420388101436</v>
+        <v>1.056061538132145</v>
       </c>
       <c r="K4">
-        <v>1.062974406964348</v>
+        <v>1.062879078314866</v>
       </c>
       <c r="L4">
-        <v>1.062343045775709</v>
+        <v>1.067740561570622</v>
       </c>
       <c r="M4">
-        <v>1.071162221138497</v>
+        <v>1.075459513837651</v>
       </c>
       <c r="N4">
-        <v>1.021442077355104</v>
+        <v>1.022508214081469</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035936020759798</v>
+        <v>1.051838813974156</v>
       </c>
       <c r="D5">
-        <v>1.054323254513477</v>
+        <v>1.060645838927361</v>
       </c>
       <c r="E5">
-        <v>1.053797018780323</v>
+        <v>1.065551266215851</v>
       </c>
       <c r="F5">
-        <v>1.062724021005966</v>
+        <v>1.073290999860103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06605478240155</v>
+        <v>1.052179845691697</v>
       </c>
       <c r="J5">
-        <v>1.054031580387224</v>
+        <v>1.056200517839244</v>
       </c>
       <c r="K5">
-        <v>1.063598151779807</v>
+        <v>1.063018582454606</v>
       </c>
       <c r="L5">
-        <v>1.063077356200928</v>
+        <v>1.067912530231413</v>
       </c>
       <c r="M5">
-        <v>1.071912960699829</v>
+        <v>1.075634380314305</v>
       </c>
       <c r="N5">
-        <v>1.021648582382804</v>
+        <v>1.022554852520607</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036114633021824</v>
+        <v>1.051878219103477</v>
       </c>
       <c r="D6">
-        <v>1.054464147478507</v>
+        <v>1.060677817486972</v>
       </c>
       <c r="E6">
-        <v>1.053956670673988</v>
+        <v>1.06558867085086</v>
       </c>
       <c r="F6">
-        <v>1.062886018425893</v>
+        <v>1.073328823242868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066118110732813</v>
+        <v>1.052191314701106</v>
       </c>
       <c r="J6">
-        <v>1.054133794946966</v>
+        <v>1.056223852601841</v>
       </c>
       <c r="K6">
-        <v>1.063702453831999</v>
+        <v>1.06304200360798</v>
       </c>
       <c r="L6">
-        <v>1.063200199137717</v>
+        <v>1.067941408523767</v>
       </c>
       <c r="M6">
-        <v>1.07203854704897</v>
+        <v>1.075663744537224</v>
       </c>
       <c r="N6">
-        <v>1.021683115830725</v>
+        <v>1.022562682521717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03488274473764</v>
+        <v>1.051607314202193</v>
       </c>
       <c r="D7">
-        <v>1.05349257447757</v>
+        <v>1.060457969176764</v>
       </c>
       <c r="E7">
-        <v>1.052855932071423</v>
+        <v>1.065331546032898</v>
       </c>
       <c r="F7">
-        <v>1.06176907115826</v>
+        <v>1.073068815329657</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065680552583778</v>
+        <v>1.052112373352713</v>
       </c>
       <c r="J7">
-        <v>1.05342858228911</v>
+        <v>1.056063395221229</v>
       </c>
       <c r="K7">
-        <v>1.062982770229609</v>
+        <v>1.062880942522874</v>
       </c>
       <c r="L7">
-        <v>1.062352888020089</v>
+        <v>1.067742859155383</v>
       </c>
       <c r="M7">
-        <v>1.071172283924849</v>
+        <v>1.075461850185044</v>
       </c>
       <c r="N7">
-        <v>1.021444846080127</v>
+        <v>1.022508837319723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029638635341652</v>
+        <v>1.05047628755026</v>
       </c>
       <c r="D8">
-        <v>1.04936103722246</v>
+        <v>1.059540105124689</v>
       </c>
       <c r="E8">
-        <v>1.048179888689963</v>
+        <v>1.064258725190701</v>
       </c>
       <c r="F8">
-        <v>1.057023249273237</v>
+        <v>1.071983851574751</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063798402826525</v>
+        <v>1.051780466959497</v>
       </c>
       <c r="J8">
-        <v>1.050420676262835</v>
+        <v>1.055392639773672</v>
       </c>
       <c r="K8">
-        <v>1.059911451751292</v>
+        <v>1.062207423433667</v>
       </c>
       <c r="L8">
-        <v>1.058744507783578</v>
+        <v>1.066913544110994</v>
       </c>
       <c r="M8">
-        <v>1.067482472388536</v>
+        <v>1.074618463495442</v>
       </c>
       <c r="N8">
-        <v>1.020428288304776</v>
+        <v>1.022283660923095</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020014946308494</v>
+        <v>1.048488323002812</v>
       </c>
       <c r="D9">
-        <v>1.041798609528699</v>
+        <v>1.057926845112654</v>
       </c>
       <c r="E9">
-        <v>1.039638150846242</v>
+        <v>1.062375632605405</v>
       </c>
       <c r="F9">
-        <v>1.04835063794339</v>
+        <v>1.070079017510505</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060272021131179</v>
+        <v>1.051188329648528</v>
       </c>
       <c r="J9">
-        <v>1.044880196938353</v>
+        <v>1.054210502280555</v>
       </c>
       <c r="K9">
-        <v>1.054248074766769</v>
+        <v>1.061019515513299</v>
       </c>
       <c r="L9">
-        <v>1.052119271934933</v>
+        <v>1.065454503987391</v>
       </c>
       <c r="M9">
-        <v>1.060705111045247</v>
+        <v>1.07313429094592</v>
       </c>
       <c r="N9">
-        <v>1.018554951686353</v>
+        <v>1.021886479344543</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013316838222179</v>
+        <v>1.047166502252414</v>
       </c>
       <c r="D10">
-        <v>1.036550956906045</v>
+        <v>1.056854221900368</v>
       </c>
       <c r="E10">
-        <v>1.033721870733205</v>
+        <v>1.061125292049586</v>
       </c>
       <c r="F10">
-        <v>1.042341521893221</v>
+        <v>1.068813953849679</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057770835476104</v>
+        <v>1.050788728142699</v>
       </c>
       <c r="J10">
-        <v>1.041011887047953</v>
+        <v>1.053422363435551</v>
       </c>
       <c r="K10">
-        <v>1.050290209248293</v>
+        <v>1.060226928882644</v>
       </c>
       <c r="L10">
-        <v>1.047507838043486</v>
+        <v>1.064483459070362</v>
       </c>
       <c r="M10">
-        <v>1.055986173620953</v>
+        <v>1.072146268048102</v>
       </c>
       <c r="N10">
-        <v>1.017246611596108</v>
+        <v>1.021621456132763</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01034357724778</v>
+        <v>1.046594986605184</v>
       </c>
       <c r="D11">
-        <v>1.034225905442946</v>
+        <v>1.05639047010966</v>
       </c>
       <c r="E11">
-        <v>1.031102981692096</v>
+        <v>1.060585102754073</v>
       </c>
       <c r="F11">
-        <v>1.039681046143925</v>
+        <v>1.068267335566175</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056649952315003</v>
+        <v>1.050614557715479</v>
       </c>
       <c r="J11">
-        <v>1.039292293547989</v>
+        <v>1.053081095063205</v>
       </c>
       <c r="K11">
-        <v>1.048530000911112</v>
+        <v>1.059883593043903</v>
       </c>
       <c r="L11">
-        <v>1.045461248291</v>
+        <v>1.064063395733729</v>
       </c>
       <c r="M11">
-        <v>1.053891523521236</v>
+        <v>1.0717188008225</v>
       </c>
       <c r="N11">
-        <v>1.016664959456042</v>
+        <v>1.021506648213588</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.009227676760957</v>
+        <v>1.046382828249971</v>
       </c>
       <c r="D12">
-        <v>1.033353994554103</v>
+        <v>1.056218319159801</v>
       </c>
       <c r="E12">
-        <v>1.030121225359623</v>
+        <v>1.060384637019528</v>
       </c>
       <c r="F12">
-        <v>1.03868362847399</v>
+        <v>1.06806447378175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056227718957673</v>
+        <v>1.05054969254404</v>
       </c>
       <c r="J12">
-        <v>1.038646574748652</v>
+        <v>1.05295433418981</v>
       </c>
       <c r="K12">
-        <v>1.04786891756406</v>
+        <v>1.059756043034561</v>
       </c>
       <c r="L12">
-        <v>1.044693240859263</v>
+        <v>1.063907427946633</v>
       </c>
       <c r="M12">
-        <v>1.053105431400863</v>
+        <v>1.071560075095401</v>
       </c>
       <c r="N12">
-        <v>1.01644654115299</v>
+        <v>1.021463996234793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.009467570609046</v>
+        <v>1.046428331119498</v>
       </c>
       <c r="D13">
-        <v>1.033541403130658</v>
+        <v>1.056255241247307</v>
       </c>
       <c r="E13">
-        <v>1.03033222875866</v>
+        <v>1.060427629215559</v>
       </c>
       <c r="F13">
-        <v>1.038898001068715</v>
+        <v>1.068107980301632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056318559215217</v>
+        <v>1.050563614046969</v>
       </c>
       <c r="J13">
-        <v>1.038785404499661</v>
+        <v>1.052981524744205</v>
       </c>
       <c r="K13">
-        <v>1.048011055700134</v>
+        <v>1.059783403818783</v>
       </c>
       <c r="L13">
-        <v>1.044858340117528</v>
+        <v>1.063940880716573</v>
       </c>
       <c r="M13">
-        <v>1.053274420526366</v>
+        <v>1.071594119805217</v>
       </c>
       <c r="N13">
-        <v>1.016493501283537</v>
+        <v>1.021473145547493</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.010251574386191</v>
+        <v>1.046577446908969</v>
       </c>
       <c r="D14">
-        <v>1.034154004106675</v>
+        <v>1.056376237863089</v>
       </c>
       <c r="E14">
-        <v>1.031022015113289</v>
+        <v>1.060568528416884</v>
       </c>
       <c r="F14">
-        <v>1.039598789396843</v>
+        <v>1.068250563334468</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056615171676881</v>
+        <v>1.050609199414073</v>
       </c>
       <c r="J14">
-        <v>1.039239062440736</v>
+        <v>1.053070616934161</v>
       </c>
       <c r="K14">
-        <v>1.048475505458871</v>
+        <v>1.059873050116386</v>
       </c>
       <c r="L14">
-        <v>1.045397925912</v>
+        <v>1.064050502105286</v>
       </c>
       <c r="M14">
-        <v>1.053826711043664</v>
+        <v>1.071705679380808</v>
       </c>
       <c r="N14">
-        <v>1.016646953772354</v>
+        <v>1.021503122731968</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010733084521825</v>
+        <v>1.046669339077349</v>
       </c>
       <c r="D15">
-        <v>1.034530339267984</v>
+        <v>1.056450802118168</v>
       </c>
       <c r="E15">
-        <v>1.031445812212416</v>
+        <v>1.060655365585152</v>
       </c>
       <c r="F15">
-        <v>1.040029336620728</v>
+        <v>1.068338436903152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056797138065154</v>
+        <v>1.050637263491783</v>
       </c>
       <c r="J15">
-        <v>1.039517641620083</v>
+        <v>1.053125509795147</v>
       </c>
       <c r="K15">
-        <v>1.048760696870221</v>
+        <v>1.059928281576268</v>
       </c>
       <c r="L15">
-        <v>1.045729337059201</v>
+        <v>1.06411805177998</v>
       </c>
       <c r="M15">
-        <v>1.054165918939817</v>
+        <v>1.071774422203627</v>
       </c>
       <c r="N15">
-        <v>1.016741184405425</v>
+        <v>1.021521591724044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013512581631797</v>
+        <v>1.047204449727319</v>
       </c>
       <c r="D16">
-        <v>1.036704121146778</v>
+        <v>1.056885014503164</v>
       </c>
       <c r="E16">
-        <v>1.033894440636954</v>
+        <v>1.061161168422089</v>
       </c>
       <c r="F16">
-        <v>1.042516822048944</v>
+        <v>1.068850255763422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05784441043674</v>
+        <v>1.05080026330322</v>
       </c>
       <c r="J16">
-        <v>1.041125047311301</v>
+        <v>1.053445012420367</v>
       </c>
       <c r="K16">
-        <v>1.050406026079821</v>
+        <v>1.060249712102917</v>
       </c>
       <c r="L16">
-        <v>1.047642586350719</v>
+        <v>1.064511345963692</v>
       </c>
       <c r="M16">
-        <v>1.056124079204138</v>
+        <v>1.072174645215563</v>
       </c>
       <c r="N16">
-        <v>1.017284887271171</v>
+        <v>1.021629074519711</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01523618780024</v>
+        <v>1.047540336899748</v>
       </c>
       <c r="D17">
-        <v>1.038053302493545</v>
+        <v>1.057157573429053</v>
       </c>
       <c r="E17">
-        <v>1.035414833998642</v>
+        <v>1.061478772167165</v>
       </c>
       <c r="F17">
-        <v>1.044061213848621</v>
+        <v>1.069171618831429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058491064525497</v>
+        <v>1.050902204043824</v>
       </c>
       <c r="J17">
-        <v>1.04212119574042</v>
+        <v>1.05364542911393</v>
       </c>
       <c r="K17">
-        <v>1.051425469484221</v>
+        <v>1.060451300277952</v>
       </c>
       <c r="L17">
-        <v>1.048829155151993</v>
+        <v>1.064758158652837</v>
       </c>
       <c r="M17">
-        <v>1.057338410904752</v>
+        <v>1.07242579020795</v>
       </c>
       <c r="N17">
-        <v>1.017621822196865</v>
+        <v>1.021696482286521</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016234539087076</v>
+        <v>1.04773633528703</v>
       </c>
       <c r="D18">
-        <v>1.038835189226782</v>
+        <v>1.057316619969874</v>
       </c>
       <c r="E18">
-        <v>1.036296172931005</v>
+        <v>1.061664142299438</v>
       </c>
       <c r="F18">
-        <v>1.04495641712333</v>
+        <v>1.069359176520656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058864608773106</v>
+        <v>1.050961554273032</v>
       </c>
       <c r="J18">
-        <v>1.042697950189701</v>
+        <v>1.053762328787972</v>
       </c>
       <c r="K18">
-        <v>1.052015634454987</v>
+        <v>1.060568869594921</v>
       </c>
       <c r="L18">
-        <v>1.049516478126102</v>
+        <v>1.064902159343917</v>
       </c>
       <c r="M18">
-        <v>1.058041782175658</v>
+        <v>1.072572312807371</v>
       </c>
       <c r="N18">
-        <v>1.01781689718662</v>
+        <v>1.02173579513235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016573779820567</v>
+        <v>1.047803179376911</v>
       </c>
       <c r="D19">
-        <v>1.039100943183165</v>
+        <v>1.057370862130498</v>
       </c>
       <c r="E19">
-        <v>1.036595769028719</v>
+        <v>1.061727368553425</v>
       </c>
       <c r="F19">
-        <v>1.045260718119233</v>
+        <v>1.069423147792976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058991366508804</v>
+        <v>1.050981772471552</v>
       </c>
       <c r="J19">
-        <v>1.042893890650736</v>
+        <v>1.053802188519033</v>
       </c>
       <c r="K19">
-        <v>1.052216117601451</v>
+        <v>1.060608955337135</v>
       </c>
       <c r="L19">
-        <v>1.049750035996403</v>
+        <v>1.064951266431546</v>
       </c>
       <c r="M19">
-        <v>1.05828078762646</v>
+        <v>1.072622278942243</v>
       </c>
       <c r="N19">
-        <v>1.017883168930793</v>
+        <v>1.021749198940411</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015051988920275</v>
+        <v>1.047504290986795</v>
       </c>
       <c r="D20">
-        <v>1.037909074790474</v>
+        <v>1.057128323437948</v>
       </c>
       <c r="E20">
-        <v>1.035252279941096</v>
+        <v>1.061444684150796</v>
       </c>
       <c r="F20">
-        <v>1.043896098838369</v>
+        <v>1.069137128012061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058422062382741</v>
+        <v>1.050891278147421</v>
       </c>
       <c r="J20">
-        <v>1.042014763370936</v>
+        <v>1.053623926289623</v>
       </c>
       <c r="K20">
-        <v>1.051316556114438</v>
+        <v>1.060429673177368</v>
       </c>
       <c r="L20">
-        <v>1.048702344550984</v>
+        <v>1.06473167393961</v>
       </c>
       <c r="M20">
-        <v>1.05720863668218</v>
+        <v>1.072398841201634</v>
       </c>
       <c r="N20">
-        <v>1.017585823262579</v>
+        <v>1.02168925058112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.010021026754444</v>
+        <v>1.046533532479344</v>
       </c>
       <c r="D21">
-        <v>1.033973839985382</v>
+        <v>1.056340604404383</v>
       </c>
       <c r="E21">
-        <v>1.030819141611967</v>
+        <v>1.060527032002442</v>
       </c>
       <c r="F21">
-        <v>1.039392682047619</v>
+        <v>1.06820857129514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056527990891684</v>
+        <v>1.050595780360366</v>
       </c>
       <c r="J21">
-        <v>1.039105666693228</v>
+        <v>1.053044381456209</v>
       </c>
       <c r="K21">
-        <v>1.048338939494786</v>
+        <v>1.059846652051772</v>
       </c>
       <c r="L21">
-        <v>1.045239249763346</v>
+        <v>1.064018219602751</v>
       </c>
       <c r="M21">
-        <v>1.053664300150482</v>
+        <v>1.071672826345601</v>
       </c>
       <c r="N21">
-        <v>1.016601831952102</v>
+        <v>1.021494295393408</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.006791039248218</v>
+        <v>1.045923919448167</v>
       </c>
       <c r="D22">
-        <v>1.031451487327792</v>
+        <v>1.055845954788792</v>
       </c>
       <c r="E22">
-        <v>1.027979652706845</v>
+        <v>1.059951136764651</v>
       </c>
       <c r="F22">
-        <v>1.03650776410343</v>
+        <v>1.067625773441298</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055302941965285</v>
+        <v>1.050409002997449</v>
       </c>
       <c r="J22">
-        <v>1.037236033654191</v>
+        <v>1.052680007309469</v>
       </c>
       <c r="K22">
-        <v>1.046424613343955</v>
+        <v>1.059479969680303</v>
       </c>
       <c r="L22">
-        <v>1.043016484138868</v>
+        <v>1.063570004549704</v>
       </c>
       <c r="M22">
-        <v>1.051389103746861</v>
+        <v>1.071216668858935</v>
       </c>
       <c r="N22">
-        <v>1.015969413637135</v>
+        <v>1.021371677873365</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008509840109715</v>
+        <v>1.046247016047176</v>
       </c>
       <c r="D23">
-        <v>1.03279331821252</v>
+        <v>1.056108118490282</v>
       </c>
       <c r="E23">
-        <v>1.029490009021233</v>
+        <v>1.060256327765179</v>
       </c>
       <c r="F23">
-        <v>1.038042322907009</v>
+        <v>1.067934628040598</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055955672674254</v>
+        <v>1.050508110420785</v>
       </c>
       <c r="J23">
-        <v>1.038231106950131</v>
+        <v>1.052873167696459</v>
       </c>
       <c r="K23">
-        <v>1.047443532919731</v>
+        <v>1.059674365290191</v>
       </c>
       <c r="L23">
-        <v>1.044199231019705</v>
+        <v>1.063807577010039</v>
       </c>
       <c r="M23">
-        <v>1.052599775296835</v>
+        <v>1.071458456014291</v>
       </c>
       <c r="N23">
-        <v>1.016306005961473</v>
+        <v>1.021436683511917</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.015135242055444</v>
+        <v>1.047520578332933</v>
       </c>
       <c r="D24">
-        <v>1.037974260717498</v>
+        <v>1.057141540041442</v>
       </c>
       <c r="E24">
-        <v>1.035325748030987</v>
+        <v>1.06146008669607</v>
       </c>
       <c r="F24">
-        <v>1.043970724524834</v>
+        <v>1.069152712582721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058453252709365</v>
+        <v>1.050896215429928</v>
       </c>
       <c r="J24">
-        <v>1.042062868789742</v>
+        <v>1.053633642490476</v>
       </c>
       <c r="K24">
-        <v>1.051365783137444</v>
+        <v>1.060439445575547</v>
       </c>
       <c r="L24">
-        <v>1.048759659558933</v>
+        <v>1.0647436411211</v>
       </c>
       <c r="M24">
-        <v>1.057267291271844</v>
+        <v>1.072411018192799</v>
       </c>
       <c r="N24">
-        <v>1.017602094116345</v>
+        <v>1.021692518292902</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02255075096335</v>
+        <v>1.049001651459211</v>
       </c>
       <c r="D25">
-        <v>1.043788740986593</v>
+        <v>1.058343410889397</v>
       </c>
       <c r="E25">
-        <v>1.041884048213553</v>
+        <v>1.062861574305481</v>
       </c>
       <c r="F25">
-        <v>1.050631333744898</v>
+        <v>1.070570620417796</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061209453383236</v>
+        <v>1.051342268565253</v>
       </c>
       <c r="J25">
-        <v>1.046342316801004</v>
+        <v>1.054516126917853</v>
       </c>
       <c r="K25">
-        <v>1.05574330118736</v>
+        <v>1.061326738184251</v>
       </c>
       <c r="L25">
-        <v>1.053865188426562</v>
+        <v>1.065831416818277</v>
       </c>
       <c r="M25">
-        <v>1.062491406916651</v>
+        <v>1.073517740651626</v>
       </c>
       <c r="N25">
-        <v>1.019049402771735</v>
+        <v>1.021989203864477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050185454231615</v>
+        <v>1.028263467882306</v>
       </c>
       <c r="D2">
-        <v>1.059304086085447</v>
+        <v>1.048278833891338</v>
       </c>
       <c r="E2">
-        <v>1.063983032370308</v>
+        <v>1.046956247005332</v>
       </c>
       <c r="F2">
-        <v>1.071705009219449</v>
+        <v>1.055781115886833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051694525032248</v>
+        <v>1.06329994287595</v>
       </c>
       <c r="J2">
-        <v>1.055219944866521</v>
+        <v>1.049630478518515</v>
       </c>
       <c r="K2">
-        <v>1.062033955755731</v>
+        <v>1.05910417618688</v>
       </c>
       <c r="L2">
-        <v>1.066700198581982</v>
+        <v>1.057797986666799</v>
       </c>
       <c r="M2">
-        <v>1.074401472400465</v>
+        <v>1.066514411499785</v>
       </c>
       <c r="N2">
-        <v>1.022225663660216</v>
+        <v>1.020161167106474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051046424322753</v>
+        <v>1.032302623673302</v>
       </c>
       <c r="D3">
-        <v>1.060002788512794</v>
+        <v>1.051458937967347</v>
       </c>
       <c r="E3">
-        <v>1.064799386103898</v>
+        <v>1.050553346490614</v>
       </c>
       <c r="F3">
-        <v>1.072530654749289</v>
+        <v>1.059432306210071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051948241710204</v>
+        <v>1.064758349899625</v>
       </c>
       <c r="J3">
-        <v>1.055730928409041</v>
+        <v>1.051949812919154</v>
       </c>
       <c r="K3">
-        <v>1.062547153733213</v>
+        <v>1.061473154448624</v>
       </c>
       <c r="L3">
-        <v>1.067331665881884</v>
+        <v>1.060577804229138</v>
       </c>
       <c r="M3">
-        <v>1.075043699842557</v>
+        <v>1.069357282077733</v>
       </c>
       <c r="N3">
-        <v>1.022397244018378</v>
+        <v>1.020945130751831</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051604179609631</v>
+        <v>1.034868436537718</v>
       </c>
       <c r="D4">
-        <v>1.060455425350396</v>
+        <v>1.053481292082075</v>
       </c>
       <c r="E4">
-        <v>1.065328571255784</v>
+        <v>1.052843152361619</v>
       </c>
       <c r="F4">
-        <v>1.073065807134554</v>
+        <v>1.061756102757691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052111458659547</v>
+        <v>1.065675459746595</v>
       </c>
       <c r="J4">
-        <v>1.056061538132145</v>
+        <v>1.053420388101435</v>
       </c>
       <c r="K4">
-        <v>1.062879078314866</v>
+        <v>1.062974406964347</v>
       </c>
       <c r="L4">
-        <v>1.067740561570622</v>
+        <v>1.062343045775709</v>
       </c>
       <c r="M4">
-        <v>1.075459513837651</v>
+        <v>1.071162221138497</v>
       </c>
       <c r="N4">
-        <v>1.022508214081469</v>
+        <v>1.021442077355104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051838813974156</v>
+        <v>1.035936020759797</v>
       </c>
       <c r="D5">
-        <v>1.060645838927361</v>
+        <v>1.054323254513476</v>
       </c>
       <c r="E5">
-        <v>1.065551266215851</v>
+        <v>1.053797018780323</v>
       </c>
       <c r="F5">
-        <v>1.073290999860103</v>
+        <v>1.062724021005965</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052179845691697</v>
+        <v>1.066054782401549</v>
       </c>
       <c r="J5">
-        <v>1.056200517839244</v>
+        <v>1.054031580387223</v>
       </c>
       <c r="K5">
-        <v>1.063018582454606</v>
+        <v>1.063598151779806</v>
       </c>
       <c r="L5">
-        <v>1.067912530231413</v>
+        <v>1.063077356200927</v>
       </c>
       <c r="M5">
-        <v>1.075634380314305</v>
+        <v>1.071912960699829</v>
       </c>
       <c r="N5">
-        <v>1.022554852520607</v>
+        <v>1.021648582382804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051878219103477</v>
+        <v>1.036114633021823</v>
       </c>
       <c r="D6">
-        <v>1.060677817486972</v>
+        <v>1.054464147478506</v>
       </c>
       <c r="E6">
-        <v>1.06558867085086</v>
+        <v>1.053956670673986</v>
       </c>
       <c r="F6">
-        <v>1.073328823242868</v>
+        <v>1.062886018425891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052191314701106</v>
+        <v>1.066118110732812</v>
       </c>
       <c r="J6">
-        <v>1.056223852601841</v>
+        <v>1.054133794946965</v>
       </c>
       <c r="K6">
-        <v>1.06304200360798</v>
+        <v>1.063702453831998</v>
       </c>
       <c r="L6">
-        <v>1.067941408523767</v>
+        <v>1.063200199137715</v>
       </c>
       <c r="M6">
-        <v>1.075663744537224</v>
+        <v>1.072038547048969</v>
       </c>
       <c r="N6">
-        <v>1.022562682521717</v>
+        <v>1.021683115830725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051607314202193</v>
+        <v>1.034882744737641</v>
       </c>
       <c r="D7">
-        <v>1.060457969176764</v>
+        <v>1.053492574477571</v>
       </c>
       <c r="E7">
-        <v>1.065331546032898</v>
+        <v>1.052855932071424</v>
       </c>
       <c r="F7">
-        <v>1.073068815329657</v>
+        <v>1.061769071158261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052112373352713</v>
+        <v>1.065680552583778</v>
       </c>
       <c r="J7">
-        <v>1.056063395221229</v>
+        <v>1.05342858228911</v>
       </c>
       <c r="K7">
-        <v>1.062880942522874</v>
+        <v>1.06298277022961</v>
       </c>
       <c r="L7">
-        <v>1.067742859155383</v>
+        <v>1.06235288802009</v>
       </c>
       <c r="M7">
-        <v>1.075461850185044</v>
+        <v>1.07117228392485</v>
       </c>
       <c r="N7">
-        <v>1.022508837319723</v>
+        <v>1.021444846080127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05047628755026</v>
+        <v>1.029638635341652</v>
       </c>
       <c r="D8">
-        <v>1.059540105124689</v>
+        <v>1.049361037222461</v>
       </c>
       <c r="E8">
-        <v>1.064258725190701</v>
+        <v>1.048179888689963</v>
       </c>
       <c r="F8">
-        <v>1.071983851574751</v>
+        <v>1.057023249273237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051780466959497</v>
+        <v>1.063798402826525</v>
       </c>
       <c r="J8">
-        <v>1.055392639773672</v>
+        <v>1.050420676262835</v>
       </c>
       <c r="K8">
-        <v>1.062207423433667</v>
+        <v>1.059911451751292</v>
       </c>
       <c r="L8">
-        <v>1.066913544110994</v>
+        <v>1.058744507783578</v>
       </c>
       <c r="M8">
-        <v>1.074618463495442</v>
+        <v>1.067482472388536</v>
       </c>
       <c r="N8">
-        <v>1.022283660923095</v>
+        <v>1.020428288304776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048488323002812</v>
+        <v>1.020014946308493</v>
       </c>
       <c r="D9">
-        <v>1.057926845112654</v>
+        <v>1.041798609528698</v>
       </c>
       <c r="E9">
-        <v>1.062375632605405</v>
+        <v>1.039638150846241</v>
       </c>
       <c r="F9">
-        <v>1.070079017510505</v>
+        <v>1.048350637943389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051188329648528</v>
+        <v>1.060272021131178</v>
       </c>
       <c r="J9">
-        <v>1.054210502280555</v>
+        <v>1.044880196938353</v>
       </c>
       <c r="K9">
-        <v>1.061019515513299</v>
+        <v>1.054248074766768</v>
       </c>
       <c r="L9">
-        <v>1.065454503987391</v>
+        <v>1.052119271934932</v>
       </c>
       <c r="M9">
-        <v>1.07313429094592</v>
+        <v>1.060705111045246</v>
       </c>
       <c r="N9">
-        <v>1.021886479344543</v>
+        <v>1.018554951686353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047166502252414</v>
+        <v>1.013316838222178</v>
       </c>
       <c r="D10">
-        <v>1.056854221900368</v>
+        <v>1.036550956906045</v>
       </c>
       <c r="E10">
-        <v>1.061125292049586</v>
+        <v>1.033721870733204</v>
       </c>
       <c r="F10">
-        <v>1.068813953849679</v>
+        <v>1.042341521893221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050788728142699</v>
+        <v>1.057770835476104</v>
       </c>
       <c r="J10">
-        <v>1.053422363435551</v>
+        <v>1.041011887047952</v>
       </c>
       <c r="K10">
-        <v>1.060226928882644</v>
+        <v>1.050290209248293</v>
       </c>
       <c r="L10">
-        <v>1.064483459070362</v>
+        <v>1.047507838043485</v>
       </c>
       <c r="M10">
-        <v>1.072146268048102</v>
+        <v>1.055986173620952</v>
       </c>
       <c r="N10">
-        <v>1.021621456132763</v>
+        <v>1.017246611596107</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046594986605184</v>
+        <v>1.01034357724778</v>
       </c>
       <c r="D11">
-        <v>1.05639047010966</v>
+        <v>1.034225905442945</v>
       </c>
       <c r="E11">
-        <v>1.060585102754073</v>
+        <v>1.031102981692095</v>
       </c>
       <c r="F11">
-        <v>1.068267335566175</v>
+        <v>1.039681046143924</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050614557715479</v>
+        <v>1.056649952315002</v>
       </c>
       <c r="J11">
-        <v>1.053081095063205</v>
+        <v>1.039292293547989</v>
       </c>
       <c r="K11">
-        <v>1.059883593043903</v>
+        <v>1.048530000911111</v>
       </c>
       <c r="L11">
-        <v>1.064063395733729</v>
+        <v>1.045461248290999</v>
       </c>
       <c r="M11">
-        <v>1.0717188008225</v>
+        <v>1.053891523521235</v>
       </c>
       <c r="N11">
-        <v>1.021506648213588</v>
+        <v>1.016664959456042</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046382828249971</v>
+        <v>1.009227676760958</v>
       </c>
       <c r="D12">
-        <v>1.056218319159801</v>
+        <v>1.033353994554104</v>
       </c>
       <c r="E12">
-        <v>1.060384637019528</v>
+        <v>1.030121225359624</v>
       </c>
       <c r="F12">
-        <v>1.06806447378175</v>
+        <v>1.038683628473991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05054969254404</v>
+        <v>1.056227718957673</v>
       </c>
       <c r="J12">
-        <v>1.05295433418981</v>
+        <v>1.038646574748652</v>
       </c>
       <c r="K12">
-        <v>1.059756043034561</v>
+        <v>1.047868917564061</v>
       </c>
       <c r="L12">
-        <v>1.063907427946633</v>
+        <v>1.044693240859264</v>
       </c>
       <c r="M12">
-        <v>1.071560075095401</v>
+        <v>1.053105431400864</v>
       </c>
       <c r="N12">
-        <v>1.021463996234793</v>
+        <v>1.01644654115299</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046428331119498</v>
+        <v>1.009467570609046</v>
       </c>
       <c r="D13">
-        <v>1.056255241247307</v>
+        <v>1.033541403130658</v>
       </c>
       <c r="E13">
-        <v>1.060427629215559</v>
+        <v>1.03033222875866</v>
       </c>
       <c r="F13">
-        <v>1.068107980301632</v>
+        <v>1.038898001068715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050563614046969</v>
+        <v>1.056318559215217</v>
       </c>
       <c r="J13">
-        <v>1.052981524744205</v>
+        <v>1.038785404499661</v>
       </c>
       <c r="K13">
-        <v>1.059783403818783</v>
+        <v>1.048011055700135</v>
       </c>
       <c r="L13">
-        <v>1.063940880716573</v>
+        <v>1.044858340117528</v>
       </c>
       <c r="M13">
-        <v>1.071594119805217</v>
+        <v>1.053274420526367</v>
       </c>
       <c r="N13">
-        <v>1.021473145547493</v>
+        <v>1.016493501283537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046577446908969</v>
+        <v>1.01025157438619</v>
       </c>
       <c r="D14">
-        <v>1.056376237863089</v>
+        <v>1.034154004106674</v>
       </c>
       <c r="E14">
-        <v>1.060568528416884</v>
+        <v>1.031022015113287</v>
       </c>
       <c r="F14">
-        <v>1.068250563334468</v>
+        <v>1.039598789396842</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050609199414073</v>
+        <v>1.05661517167688</v>
       </c>
       <c r="J14">
-        <v>1.053070616934161</v>
+        <v>1.039239062440735</v>
       </c>
       <c r="K14">
-        <v>1.059873050116386</v>
+        <v>1.048475505458869</v>
       </c>
       <c r="L14">
-        <v>1.064050502105286</v>
+        <v>1.045397925911998</v>
       </c>
       <c r="M14">
-        <v>1.071705679380808</v>
+        <v>1.053826711043663</v>
       </c>
       <c r="N14">
-        <v>1.021503122731968</v>
+        <v>1.016646953772354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046669339077349</v>
+        <v>1.010733084521824</v>
       </c>
       <c r="D15">
-        <v>1.056450802118168</v>
+        <v>1.034530339267984</v>
       </c>
       <c r="E15">
-        <v>1.060655365585152</v>
+        <v>1.031445812212416</v>
       </c>
       <c r="F15">
-        <v>1.068338436903152</v>
+        <v>1.040029336620727</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050637263491783</v>
+        <v>1.056797138065154</v>
       </c>
       <c r="J15">
-        <v>1.053125509795147</v>
+        <v>1.039517641620082</v>
       </c>
       <c r="K15">
-        <v>1.059928281576268</v>
+        <v>1.048760696870221</v>
       </c>
       <c r="L15">
-        <v>1.06411805177998</v>
+        <v>1.0457293370592</v>
       </c>
       <c r="M15">
-        <v>1.071774422203627</v>
+        <v>1.054165918939817</v>
       </c>
       <c r="N15">
-        <v>1.021521591724044</v>
+        <v>1.016741184405425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047204449727319</v>
+        <v>1.013512581631796</v>
       </c>
       <c r="D16">
-        <v>1.056885014503164</v>
+        <v>1.036704121146777</v>
       </c>
       <c r="E16">
-        <v>1.061161168422089</v>
+        <v>1.033894440636953</v>
       </c>
       <c r="F16">
-        <v>1.068850255763422</v>
+        <v>1.042516822048944</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05080026330322</v>
+        <v>1.05784441043674</v>
       </c>
       <c r="J16">
-        <v>1.053445012420367</v>
+        <v>1.041125047311301</v>
       </c>
       <c r="K16">
-        <v>1.060249712102917</v>
+        <v>1.050406026079821</v>
       </c>
       <c r="L16">
-        <v>1.064511345963692</v>
+        <v>1.047642586350718</v>
       </c>
       <c r="M16">
-        <v>1.072174645215563</v>
+        <v>1.056124079204138</v>
       </c>
       <c r="N16">
-        <v>1.021629074519711</v>
+        <v>1.017284887271171</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047540336899748</v>
+        <v>1.01523618780024</v>
       </c>
       <c r="D17">
-        <v>1.057157573429053</v>
+        <v>1.038053302493545</v>
       </c>
       <c r="E17">
-        <v>1.061478772167165</v>
+        <v>1.035414833998641</v>
       </c>
       <c r="F17">
-        <v>1.069171618831429</v>
+        <v>1.044061213848621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050902204043824</v>
+        <v>1.058491064525497</v>
       </c>
       <c r="J17">
-        <v>1.05364542911393</v>
+        <v>1.04212119574042</v>
       </c>
       <c r="K17">
-        <v>1.060451300277952</v>
+        <v>1.051425469484221</v>
       </c>
       <c r="L17">
-        <v>1.064758158652837</v>
+        <v>1.048829155151993</v>
       </c>
       <c r="M17">
-        <v>1.07242579020795</v>
+        <v>1.057338410904752</v>
       </c>
       <c r="N17">
-        <v>1.021696482286521</v>
+        <v>1.017621822196865</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04773633528703</v>
+        <v>1.016234539087076</v>
       </c>
       <c r="D18">
-        <v>1.057316619969874</v>
+        <v>1.038835189226782</v>
       </c>
       <c r="E18">
-        <v>1.061664142299438</v>
+        <v>1.036296172931006</v>
       </c>
       <c r="F18">
-        <v>1.069359176520656</v>
+        <v>1.04495641712333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050961554273032</v>
+        <v>1.058864608773106</v>
       </c>
       <c r="J18">
-        <v>1.053762328787972</v>
+        <v>1.042697950189701</v>
       </c>
       <c r="K18">
-        <v>1.060568869594921</v>
+        <v>1.052015634454987</v>
       </c>
       <c r="L18">
-        <v>1.064902159343917</v>
+        <v>1.049516478126102</v>
       </c>
       <c r="M18">
-        <v>1.072572312807371</v>
+        <v>1.058041782175658</v>
       </c>
       <c r="N18">
-        <v>1.02173579513235</v>
+        <v>1.01781689718662</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047803179376911</v>
+        <v>1.016573779820567</v>
       </c>
       <c r="D19">
-        <v>1.057370862130498</v>
+        <v>1.039100943183166</v>
       </c>
       <c r="E19">
-        <v>1.061727368553425</v>
+        <v>1.03659576902872</v>
       </c>
       <c r="F19">
-        <v>1.069423147792976</v>
+        <v>1.045260718119234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050981772471552</v>
+        <v>1.058991366508805</v>
       </c>
       <c r="J19">
-        <v>1.053802188519033</v>
+        <v>1.042893890650737</v>
       </c>
       <c r="K19">
-        <v>1.060608955337135</v>
+        <v>1.052216117601451</v>
       </c>
       <c r="L19">
-        <v>1.064951266431546</v>
+        <v>1.049750035996403</v>
       </c>
       <c r="M19">
-        <v>1.072622278942243</v>
+        <v>1.058280787626461</v>
       </c>
       <c r="N19">
-        <v>1.021749198940411</v>
+        <v>1.017883168930793</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047504290986795</v>
+        <v>1.015051988920275</v>
       </c>
       <c r="D20">
-        <v>1.057128323437948</v>
+        <v>1.037909074790473</v>
       </c>
       <c r="E20">
-        <v>1.061444684150796</v>
+        <v>1.035252279941096</v>
       </c>
       <c r="F20">
-        <v>1.069137128012061</v>
+        <v>1.043896098838369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050891278147421</v>
+        <v>1.058422062382741</v>
       </c>
       <c r="J20">
-        <v>1.053623926289623</v>
+        <v>1.042014763370936</v>
       </c>
       <c r="K20">
-        <v>1.060429673177368</v>
+        <v>1.051316556114438</v>
       </c>
       <c r="L20">
-        <v>1.06473167393961</v>
+        <v>1.048702344550984</v>
       </c>
       <c r="M20">
-        <v>1.072398841201634</v>
+        <v>1.057208636682179</v>
       </c>
       <c r="N20">
-        <v>1.02168925058112</v>
+        <v>1.017585823262579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046533532479344</v>
+        <v>1.010021026754444</v>
       </c>
       <c r="D21">
-        <v>1.056340604404383</v>
+        <v>1.033973839985382</v>
       </c>
       <c r="E21">
-        <v>1.060527032002442</v>
+        <v>1.030819141611967</v>
       </c>
       <c r="F21">
-        <v>1.06820857129514</v>
+        <v>1.039392682047619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050595780360366</v>
+        <v>1.056527990891684</v>
       </c>
       <c r="J21">
-        <v>1.053044381456209</v>
+        <v>1.039105666693228</v>
       </c>
       <c r="K21">
-        <v>1.059846652051772</v>
+        <v>1.048338939494786</v>
       </c>
       <c r="L21">
-        <v>1.064018219602751</v>
+        <v>1.045239249763346</v>
       </c>
       <c r="M21">
-        <v>1.071672826345601</v>
+        <v>1.053664300150482</v>
       </c>
       <c r="N21">
-        <v>1.021494295393408</v>
+        <v>1.016601831952101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045923919448167</v>
+        <v>1.006791039248217</v>
       </c>
       <c r="D22">
-        <v>1.055845954788792</v>
+        <v>1.031451487327792</v>
       </c>
       <c r="E22">
-        <v>1.059951136764651</v>
+        <v>1.027979652706845</v>
       </c>
       <c r="F22">
-        <v>1.067625773441298</v>
+        <v>1.03650776410343</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050409002997449</v>
+        <v>1.055302941965284</v>
       </c>
       <c r="J22">
-        <v>1.052680007309469</v>
+        <v>1.03723603365419</v>
       </c>
       <c r="K22">
-        <v>1.059479969680303</v>
+        <v>1.046424613343955</v>
       </c>
       <c r="L22">
-        <v>1.063570004549704</v>
+        <v>1.043016484138867</v>
       </c>
       <c r="M22">
-        <v>1.071216668858935</v>
+        <v>1.05138910374686</v>
       </c>
       <c r="N22">
-        <v>1.021371677873365</v>
+        <v>1.015969413637135</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046247016047176</v>
+        <v>1.008509840109715</v>
       </c>
       <c r="D23">
-        <v>1.056108118490282</v>
+        <v>1.03279331821252</v>
       </c>
       <c r="E23">
-        <v>1.060256327765179</v>
+        <v>1.029490009021233</v>
       </c>
       <c r="F23">
-        <v>1.067934628040598</v>
+        <v>1.038042322907009</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050508110420785</v>
+        <v>1.055955672674254</v>
       </c>
       <c r="J23">
-        <v>1.052873167696459</v>
+        <v>1.038231106950131</v>
       </c>
       <c r="K23">
-        <v>1.059674365290191</v>
+        <v>1.047443532919731</v>
       </c>
       <c r="L23">
-        <v>1.063807577010039</v>
+        <v>1.044199231019705</v>
       </c>
       <c r="M23">
-        <v>1.071458456014291</v>
+        <v>1.052599775296835</v>
       </c>
       <c r="N23">
-        <v>1.021436683511917</v>
+        <v>1.016306005961472</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047520578332933</v>
+        <v>1.015135242055444</v>
       </c>
       <c r="D24">
-        <v>1.057141540041442</v>
+        <v>1.037974260717498</v>
       </c>
       <c r="E24">
-        <v>1.06146008669607</v>
+        <v>1.035325748030987</v>
       </c>
       <c r="F24">
-        <v>1.069152712582721</v>
+        <v>1.043970724524834</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050896215429928</v>
+        <v>1.058453252709365</v>
       </c>
       <c r="J24">
-        <v>1.053633642490476</v>
+        <v>1.042062868789741</v>
       </c>
       <c r="K24">
-        <v>1.060439445575547</v>
+        <v>1.051365783137443</v>
       </c>
       <c r="L24">
-        <v>1.0647436411211</v>
+        <v>1.048759659558932</v>
       </c>
       <c r="M24">
-        <v>1.072411018192799</v>
+        <v>1.057267291271844</v>
       </c>
       <c r="N24">
-        <v>1.021692518292902</v>
+        <v>1.017602094116345</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049001651459211</v>
+        <v>1.02255075096335</v>
       </c>
       <c r="D25">
-        <v>1.058343410889397</v>
+        <v>1.043788740986592</v>
       </c>
       <c r="E25">
-        <v>1.062861574305481</v>
+        <v>1.041884048213553</v>
       </c>
       <c r="F25">
-        <v>1.070570620417796</v>
+        <v>1.050631333744897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051342268565253</v>
+        <v>1.061209453383235</v>
       </c>
       <c r="J25">
-        <v>1.054516126917853</v>
+        <v>1.046342316801003</v>
       </c>
       <c r="K25">
-        <v>1.061326738184251</v>
+        <v>1.055743301187359</v>
       </c>
       <c r="L25">
-        <v>1.065831416818277</v>
+        <v>1.053865188426561</v>
       </c>
       <c r="M25">
-        <v>1.073517740651626</v>
+        <v>1.06249140691665</v>
       </c>
       <c r="N25">
-        <v>1.021989203864477</v>
+        <v>1.019049402771735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028263467882306</v>
+        <v>0.9962448061086969</v>
       </c>
       <c r="D2">
-        <v>1.048278833891338</v>
+        <v>1.018747274025737</v>
       </c>
       <c r="E2">
-        <v>1.046956247005332</v>
+        <v>1.004445929929328</v>
       </c>
       <c r="F2">
-        <v>1.055781115886833</v>
+        <v>1.024265468596831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06329994287595</v>
+        <v>1.047031577297482</v>
       </c>
       <c r="J2">
-        <v>1.049630478518515</v>
+        <v>1.018538417448913</v>
       </c>
       <c r="K2">
-        <v>1.05910417618688</v>
+        <v>1.029951464722246</v>
       </c>
       <c r="L2">
-        <v>1.057797986666799</v>
+        <v>1.015843671444402</v>
       </c>
       <c r="M2">
-        <v>1.066514411499785</v>
+        <v>1.035396789011066</v>
       </c>
       <c r="N2">
-        <v>1.020161167106474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010114264155809</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036586563864225</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032248455481074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032302623673302</v>
+        <v>1.000040130260623</v>
       </c>
       <c r="D3">
-        <v>1.051458937967347</v>
+        <v>1.021230234786348</v>
       </c>
       <c r="E3">
-        <v>1.050553346490614</v>
+        <v>1.007735635909478</v>
       </c>
       <c r="F3">
-        <v>1.059432306210071</v>
+        <v>1.027025801699908</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064758349899625</v>
+        <v>1.047855733236522</v>
       </c>
       <c r="J3">
-        <v>1.051949812919154</v>
+        <v>1.020529701344471</v>
       </c>
       <c r="K3">
-        <v>1.061473154448624</v>
+        <v>1.031598490239917</v>
       </c>
       <c r="L3">
-        <v>1.060577804229138</v>
+        <v>1.018270485476635</v>
       </c>
       <c r="M3">
-        <v>1.069357282077733</v>
+        <v>1.037324176882543</v>
       </c>
       <c r="N3">
-        <v>1.020945130751831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010786718508401</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0381119688439</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033410378431235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034868436537718</v>
+        <v>1.002451590028776</v>
       </c>
       <c r="D4">
-        <v>1.053481292082075</v>
+        <v>1.022809571244734</v>
       </c>
       <c r="E4">
-        <v>1.052843152361619</v>
+        <v>1.009831372489473</v>
       </c>
       <c r="F4">
-        <v>1.061756102757691</v>
+        <v>1.028785646927805</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065675459746595</v>
+        <v>1.048366112442379</v>
       </c>
       <c r="J4">
-        <v>1.053420388101435</v>
+        <v>1.021792791106629</v>
       </c>
       <c r="K4">
-        <v>1.062974406964347</v>
+        <v>1.032640283669392</v>
       </c>
       <c r="L4">
-        <v>1.062343045775709</v>
+        <v>1.019812572137909</v>
       </c>
       <c r="M4">
-        <v>1.071162221138497</v>
+        <v>1.03854863753553</v>
       </c>
       <c r="N4">
-        <v>1.021442077355104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011213233093454</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03908104992128</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03414793106056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035936020759797</v>
+        <v>1.003457770285086</v>
       </c>
       <c r="D5">
-        <v>1.054323254513476</v>
+        <v>1.023470776013806</v>
       </c>
       <c r="E5">
-        <v>1.053797018780323</v>
+        <v>1.010707456892701</v>
       </c>
       <c r="F5">
-        <v>1.062724021005965</v>
+        <v>1.029520506285868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066054782401549</v>
+        <v>1.048577045588638</v>
       </c>
       <c r="J5">
-        <v>1.054031580387223</v>
+        <v>1.022320499135412</v>
       </c>
       <c r="K5">
-        <v>1.063598151779806</v>
+        <v>1.033076235709504</v>
       </c>
       <c r="L5">
-        <v>1.063077356200927</v>
+        <v>1.020456944322202</v>
       </c>
       <c r="M5">
-        <v>1.071912960699829</v>
+        <v>1.03905923029662</v>
       </c>
       <c r="N5">
-        <v>1.021648582382804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011391781944325</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039485150541188</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034463415117886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036114633021823</v>
+        <v>1.003629406780775</v>
       </c>
       <c r="D6">
-        <v>1.054464147478506</v>
+        <v>1.023585844133398</v>
       </c>
       <c r="E6">
-        <v>1.053956670673986</v>
+        <v>1.010857387042626</v>
       </c>
       <c r="F6">
-        <v>1.062886018425891</v>
+        <v>1.029644936275511</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066118110732812</v>
+        <v>1.048614312842125</v>
       </c>
       <c r="J6">
-        <v>1.054133794946965</v>
+        <v>1.022411969141347</v>
       </c>
       <c r="K6">
-        <v>1.063702453831998</v>
+        <v>1.033153478461664</v>
       </c>
       <c r="L6">
-        <v>1.063200199137715</v>
+        <v>1.020567993240813</v>
       </c>
       <c r="M6">
-        <v>1.072038547048969</v>
+        <v>1.039146036885576</v>
       </c>
       <c r="N6">
-        <v>1.021683115830725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011423172795684</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039553852229756</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034526842740989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034882744737641</v>
+        <v>1.00247389433437</v>
       </c>
       <c r="D7">
-        <v>1.053492574477571</v>
+        <v>1.022830239087955</v>
       </c>
       <c r="E7">
-        <v>1.052855932071424</v>
+        <v>1.009851883888286</v>
       </c>
       <c r="F7">
-        <v>1.061769071158261</v>
+        <v>1.028799226667874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065680552583778</v>
+        <v>1.048374735132264</v>
       </c>
       <c r="J7">
-        <v>1.05342858228911</v>
+        <v>1.021808461043968</v>
       </c>
       <c r="K7">
-        <v>1.06298277022961</v>
+        <v>1.032657803952781</v>
       </c>
       <c r="L7">
-        <v>1.06235288802009</v>
+        <v>1.019829879893031</v>
       </c>
       <c r="M7">
-        <v>1.07117228392485</v>
+        <v>1.038559175403569</v>
       </c>
       <c r="N7">
-        <v>1.021444846080127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011219741322052</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039089389953702</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034180583731902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029638635341652</v>
+        <v>0.9975477334194491</v>
       </c>
       <c r="D8">
-        <v>1.049361037222461</v>
+        <v>1.019606570353994</v>
       </c>
       <c r="E8">
-        <v>1.048179888689963</v>
+        <v>1.005575483231823</v>
       </c>
       <c r="F8">
-        <v>1.057023249273237</v>
+        <v>1.025208429381408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063798402826525</v>
+        <v>1.047321931866875</v>
       </c>
       <c r="J8">
-        <v>1.050420676262835</v>
+        <v>1.019227310651707</v>
       </c>
       <c r="K8">
-        <v>1.059911451751292</v>
+        <v>1.03052734941228</v>
       </c>
       <c r="L8">
-        <v>1.058744507783578</v>
+        <v>1.016680457014289</v>
       </c>
       <c r="M8">
-        <v>1.067482472388536</v>
+        <v>1.036057428806612</v>
       </c>
       <c r="N8">
-        <v>1.020428288304776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010348490164236</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037109418634637</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032678757076181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020014946308493</v>
+        <v>0.9884983665822205</v>
       </c>
       <c r="D9">
-        <v>1.041798609528698</v>
+        <v>1.013691228771033</v>
       </c>
       <c r="E9">
-        <v>1.039638150846241</v>
+        <v>0.9977632660013134</v>
       </c>
       <c r="F9">
-        <v>1.048350637943389</v>
+        <v>1.018666462752236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060272021131178</v>
+        <v>1.045278944341893</v>
       </c>
       <c r="J9">
-        <v>1.044880196938353</v>
+        <v>1.014463918690532</v>
       </c>
       <c r="K9">
-        <v>1.054248074766768</v>
+        <v>1.026566013236388</v>
       </c>
       <c r="L9">
-        <v>1.052119271934932</v>
+        <v>1.010892737194176</v>
       </c>
       <c r="M9">
-        <v>1.060705111045246</v>
+        <v>1.031463778948778</v>
       </c>
       <c r="N9">
-        <v>1.018554951686353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008738436594254</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033473826235525</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02987457677029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013316838222178</v>
+        <v>0.9822620431691658</v>
       </c>
       <c r="D10">
-        <v>1.036550956906045</v>
+        <v>1.009633668465785</v>
       </c>
       <c r="E10">
-        <v>1.033721870733204</v>
+        <v>0.992419541719716</v>
       </c>
       <c r="F10">
-        <v>1.042341521893221</v>
+        <v>1.014369372429504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057770835476104</v>
+        <v>1.043829272635886</v>
       </c>
       <c r="J10">
-        <v>1.041011887047952</v>
+        <v>1.011197538286575</v>
       </c>
       <c r="K10">
-        <v>1.050290209248293</v>
+        <v>1.023831135610384</v>
       </c>
       <c r="L10">
-        <v>1.047507838043485</v>
+        <v>1.006927025950533</v>
       </c>
       <c r="M10">
-        <v>1.055986173620952</v>
+        <v>1.028483941285788</v>
       </c>
       <c r="N10">
-        <v>1.017246611596107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007640718674155</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031167356051186</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027957784495063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01034357724778</v>
+        <v>0.9799239218286748</v>
       </c>
       <c r="D11">
-        <v>1.034225905442945</v>
+        <v>1.008140854776622</v>
       </c>
       <c r="E11">
-        <v>1.031102981692095</v>
+        <v>0.9904802668098821</v>
       </c>
       <c r="F11">
-        <v>1.039681046143924</v>
+        <v>1.014148137875388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056649952315002</v>
+        <v>1.043451191197634</v>
       </c>
       <c r="J11">
-        <v>1.039292293547989</v>
+        <v>1.010156413864375</v>
       </c>
       <c r="K11">
-        <v>1.048530000911111</v>
+        <v>1.022910862329467</v>
       </c>
       <c r="L11">
-        <v>1.045461248290999</v>
+        <v>1.005583972430821</v>
       </c>
       <c r="M11">
-        <v>1.053891523521235</v>
+        <v>1.028808083861965</v>
       </c>
       <c r="N11">
-        <v>1.016664959456042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007341749300638</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031863444465564</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027340278438212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009227676760958</v>
+        <v>0.9791646450351594</v>
       </c>
       <c r="D12">
-        <v>1.033353994554104</v>
+        <v>1.007650827917488</v>
       </c>
       <c r="E12">
-        <v>1.030121225359624</v>
+        <v>0.9898701731143055</v>
       </c>
       <c r="F12">
-        <v>1.038683628473991</v>
+        <v>1.014620120019948</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056227718957673</v>
+        <v>1.043383449362463</v>
       </c>
       <c r="J12">
-        <v>1.038646574748652</v>
+        <v>1.009877740548973</v>
       </c>
       <c r="K12">
-        <v>1.047868917564061</v>
+        <v>1.02263290351245</v>
       </c>
       <c r="L12">
-        <v>1.044693240859264</v>
+        <v>1.005194052346875</v>
       </c>
       <c r="M12">
-        <v>1.053105431400864</v>
+        <v>1.029472481346193</v>
       </c>
       <c r="N12">
-        <v>1.01644654115299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007287692695595</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032717430028599</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027143748709736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +1016,105 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009467570609046</v>
+        <v>0.9795827655781478</v>
       </c>
       <c r="D13">
-        <v>1.033541403130658</v>
+        <v>1.007915419727602</v>
       </c>
       <c r="E13">
-        <v>1.03033222875866</v>
+        <v>0.990252906743385</v>
       </c>
       <c r="F13">
-        <v>1.038898001068715</v>
+        <v>1.015682800598125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056318559215217</v>
+        <v>1.043564012268607</v>
       </c>
       <c r="J13">
-        <v>1.038785404499661</v>
+        <v>1.010181193872209</v>
       </c>
       <c r="K13">
-        <v>1.048011055700135</v>
+        <v>1.022848997879184</v>
       </c>
       <c r="L13">
-        <v>1.044858340117528</v>
+        <v>1.005524588223791</v>
       </c>
       <c r="M13">
-        <v>1.053274420526367</v>
+        <v>1.030472540206804</v>
       </c>
       <c r="N13">
-        <v>1.016493501283537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007424822819682</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033786253592647</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027294018637287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.01025157438619</v>
+        <v>0.980404732607094</v>
       </c>
       <c r="D14">
-        <v>1.034154004106674</v>
+        <v>1.008440269752145</v>
       </c>
       <c r="E14">
-        <v>1.031022015113287</v>
+        <v>0.9909665198500593</v>
       </c>
       <c r="F14">
-        <v>1.039598789396842</v>
+        <v>1.016680516022419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05661517167688</v>
+        <v>1.043799651478279</v>
       </c>
       <c r="J14">
-        <v>1.039239062440735</v>
+        <v>1.010652901688613</v>
       </c>
       <c r="K14">
-        <v>1.048475505458869</v>
+        <v>1.023221513588276</v>
       </c>
       <c r="L14">
-        <v>1.045397925911998</v>
+        <v>1.006078024547608</v>
       </c>
       <c r="M14">
-        <v>1.053826711043663</v>
+        <v>1.031311137775065</v>
       </c>
       <c r="N14">
-        <v>1.016646953772354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007605952148197</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03462318540277</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027558844181511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010733084521824</v>
+        <v>0.9808696773621921</v>
       </c>
       <c r="D15">
-        <v>1.034530339267984</v>
+        <v>1.008741458836768</v>
       </c>
       <c r="E15">
-        <v>1.031445812212416</v>
+        <v>0.9913656018446377</v>
       </c>
       <c r="F15">
-        <v>1.040029336620727</v>
+        <v>1.017085319179368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056797138065154</v>
+        <v>1.043918340004282</v>
       </c>
       <c r="J15">
-        <v>1.039517641620082</v>
+        <v>1.010904485166255</v>
       </c>
       <c r="K15">
-        <v>1.048760696870221</v>
+        <v>1.023429363321908</v>
       </c>
       <c r="L15">
-        <v>1.0457293370592</v>
+        <v>1.006379363467623</v>
       </c>
       <c r="M15">
-        <v>1.054165918939817</v>
+        <v>1.03162188800402</v>
       </c>
       <c r="N15">
-        <v>1.016741184405425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007695580353687</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034906472563988</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02771173562047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013512581631796</v>
+        <v>0.9834296314756974</v>
       </c>
       <c r="D16">
-        <v>1.036704121146777</v>
+        <v>1.010412198714032</v>
       </c>
       <c r="E16">
-        <v>1.033894440636953</v>
+        <v>0.9935493670997519</v>
       </c>
       <c r="F16">
-        <v>1.042516822048944</v>
+        <v>1.018751569111628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05784441043674</v>
+        <v>1.044518497181426</v>
       </c>
       <c r="J16">
-        <v>1.041125047311301</v>
+        <v>1.012237523935395</v>
       </c>
       <c r="K16">
-        <v>1.050406026079821</v>
+        <v>1.024559835375021</v>
       </c>
       <c r="L16">
-        <v>1.047642586350718</v>
+        <v>1.007999051263191</v>
       </c>
       <c r="M16">
-        <v>1.056124079204138</v>
+        <v>1.032754606919111</v>
       </c>
       <c r="N16">
-        <v>1.017284887271171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008137076520425</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03576291108043</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028514232923455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01523618780024</v>
+        <v>0.984967990499114</v>
       </c>
       <c r="D17">
-        <v>1.038053302493545</v>
+        <v>1.011423418840254</v>
       </c>
       <c r="E17">
-        <v>1.035414833998641</v>
+        <v>0.994857093989144</v>
       </c>
       <c r="F17">
-        <v>1.044061213848621</v>
+        <v>1.019505458031714</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058491064525497</v>
+        <v>1.044854374877369</v>
       </c>
       <c r="J17">
-        <v>1.04212119574042</v>
+        <v>1.013016339592954</v>
       </c>
       <c r="K17">
-        <v>1.051425469484221</v>
+        <v>1.025234075513367</v>
       </c>
       <c r="L17">
-        <v>1.048829155151993</v>
+        <v>1.00895590190022</v>
       </c>
       <c r="M17">
-        <v>1.057338410904752</v>
+        <v>1.033179916212801</v>
       </c>
       <c r="N17">
-        <v>1.017621822196865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008381968924223</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035969550144767</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028993566685352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016234539087076</v>
+        <v>0.9857492497565954</v>
       </c>
       <c r="D18">
-        <v>1.038835189226782</v>
+        <v>1.011937114739619</v>
       </c>
       <c r="E18">
-        <v>1.036296172931006</v>
+        <v>0.9955066493713035</v>
       </c>
       <c r="F18">
-        <v>1.04495641712333</v>
+        <v>1.01943388557178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058864608773106</v>
+        <v>1.044974976611346</v>
       </c>
       <c r="J18">
-        <v>1.042697950189701</v>
+        <v>1.013361658291388</v>
       </c>
       <c r="K18">
-        <v>1.052015634454987</v>
+        <v>1.025552930871068</v>
       </c>
       <c r="L18">
-        <v>1.049516478126102</v>
+        <v>1.009403397291931</v>
       </c>
       <c r="M18">
-        <v>1.058041782175658</v>
+        <v>1.032925389622985</v>
       </c>
       <c r="N18">
-        <v>1.01781689718662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008468626432506</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035529561495104</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029207261470789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016573779820567</v>
+        <v>0.985822344387322</v>
       </c>
       <c r="D19">
-        <v>1.039100943183166</v>
+        <v>1.011985661866057</v>
       </c>
       <c r="E19">
-        <v>1.03659576902872</v>
+        <v>0.9955371101716083</v>
       </c>
       <c r="F19">
-        <v>1.045260718119234</v>
+        <v>1.018550806055502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058991366508805</v>
+        <v>1.044888703694474</v>
       </c>
       <c r="J19">
-        <v>1.042893890650737</v>
+        <v>1.013294047722526</v>
       </c>
       <c r="K19">
-        <v>1.052216117601451</v>
+        <v>1.025537213906576</v>
       </c>
       <c r="L19">
-        <v>1.049750035996403</v>
+        <v>1.009368366415012</v>
       </c>
       <c r="M19">
-        <v>1.058280787626461</v>
+        <v>1.031993962185781</v>
       </c>
       <c r="N19">
-        <v>1.017883168930793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008408914297221</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034465719608575</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029202604911991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015051988920275</v>
+        <v>0.9839013127568244</v>
       </c>
       <c r="D20">
-        <v>1.037909074790473</v>
+        <v>1.010713089141675</v>
       </c>
       <c r="E20">
-        <v>1.035252279941096</v>
+        <v>0.9938248911553187</v>
       </c>
       <c r="F20">
-        <v>1.043896098838369</v>
+        <v>1.015498017188061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058422062382741</v>
+        <v>1.044224567628612</v>
       </c>
       <c r="J20">
-        <v>1.042014763370936</v>
+        <v>1.012067234243222</v>
       </c>
       <c r="K20">
-        <v>1.051316556114438</v>
+        <v>1.024570141674036</v>
       </c>
       <c r="L20">
-        <v>1.048702344550984</v>
+        <v>1.007977198484565</v>
       </c>
       <c r="M20">
-        <v>1.057208636682179</v>
+        <v>1.029273718908391</v>
       </c>
       <c r="N20">
-        <v>1.017585823262579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007936850428657</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.0317817445762</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028522793067695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010021026754444</v>
+        <v>0.9791294944495006</v>
       </c>
       <c r="D21">
-        <v>1.033973839985382</v>
+        <v>1.007605323000627</v>
       </c>
       <c r="E21">
-        <v>1.030819141611967</v>
+        <v>0.9897362119494327</v>
       </c>
       <c r="F21">
-        <v>1.039392682047619</v>
+        <v>1.011953679613225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056527990891684</v>
+        <v>1.043055245087046</v>
       </c>
       <c r="J21">
-        <v>1.039105666693228</v>
+        <v>1.009526482557725</v>
       </c>
       <c r="K21">
-        <v>1.048338939494786</v>
+        <v>1.022444028647737</v>
       </c>
       <c r="L21">
-        <v>1.045239249763346</v>
+        <v>1.004914679368458</v>
       </c>
       <c r="M21">
-        <v>1.053664300150482</v>
+        <v>1.026712070409577</v>
       </c>
       <c r="N21">
-        <v>1.016601831952101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007073340575173</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029713120273894</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027022786104576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006791039248217</v>
+        <v>0.9760860227102657</v>
       </c>
       <c r="D22">
-        <v>1.031451487327792</v>
+        <v>1.005623630276094</v>
       </c>
       <c r="E22">
-        <v>1.027979652706845</v>
+        <v>0.9871385051843752</v>
       </c>
       <c r="F22">
-        <v>1.03650776410343</v>
+        <v>1.009792945353934</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055302941965284</v>
+        <v>1.042304910701306</v>
       </c>
       <c r="J22">
-        <v>1.03723603365419</v>
+        <v>1.007912928077057</v>
       </c>
       <c r="K22">
-        <v>1.046424613343955</v>
+        <v>1.021084499123786</v>
       </c>
       <c r="L22">
-        <v>1.043016484138867</v>
+        <v>1.002969130259625</v>
       </c>
       <c r="M22">
-        <v>1.05138910374686</v>
+        <v>1.025172866751686</v>
       </c>
       <c r="N22">
-        <v>1.015969413637135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006526354326207</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028494924111621</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026047872266292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008509840109715</v>
+        <v>0.9776976017924555</v>
       </c>
       <c r="D23">
-        <v>1.03279331821252</v>
+        <v>1.006667750412775</v>
       </c>
       <c r="E23">
-        <v>1.029490009021233</v>
+        <v>0.988512269008802</v>
       </c>
       <c r="F23">
-        <v>1.038042322907009</v>
+        <v>1.010938677756987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055955672674254</v>
+        <v>1.042700555719855</v>
       </c>
       <c r="J23">
-        <v>1.038231106950131</v>
+        <v>1.008764103293611</v>
       </c>
       <c r="K23">
-        <v>1.047443532919731</v>
+        <v>1.021798486673239</v>
       </c>
       <c r="L23">
-        <v>1.044199231019705</v>
+        <v>1.003996609434126</v>
       </c>
       <c r="M23">
-        <v>1.052599775296835</v>
+        <v>1.025988641631057</v>
       </c>
       <c r="N23">
-        <v>1.016306005961472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006813546836902</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029140565923715</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026542962657393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015135242055444</v>
+        <v>0.9839242462583552</v>
       </c>
       <c r="D24">
-        <v>1.037974260717498</v>
+        <v>1.010717524259413</v>
       </c>
       <c r="E24">
-        <v>1.035325748030987</v>
+        <v>0.9938372553602985</v>
       </c>
       <c r="F24">
-        <v>1.043970724524834</v>
+        <v>1.01538026651448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058453252709365</v>
+        <v>1.04420720759154</v>
       </c>
       <c r="J24">
-        <v>1.042062868789741</v>
+        <v>1.01205547785539</v>
       </c>
       <c r="K24">
-        <v>1.051365783137443</v>
+        <v>1.024559006457138</v>
       </c>
       <c r="L24">
-        <v>1.048759659558932</v>
+        <v>1.007973467003946</v>
       </c>
       <c r="M24">
-        <v>1.057267291271844</v>
+        <v>1.029142565668933</v>
       </c>
       <c r="N24">
-        <v>1.017602094116345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007926333401032</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031636721010373</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028487241808038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02255075096335</v>
+        <v>0.9908958381555677</v>
       </c>
       <c r="D25">
-        <v>1.043788740986592</v>
+        <v>1.015265075230321</v>
       </c>
       <c r="E25">
-        <v>1.041884048213553</v>
+        <v>0.9998292196833836</v>
       </c>
       <c r="F25">
-        <v>1.050631333744897</v>
+        <v>1.020389171772988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061209453383235</v>
+        <v>1.045837489578351</v>
       </c>
       <c r="J25">
-        <v>1.046342316801003</v>
+        <v>1.015733526805494</v>
       </c>
       <c r="K25">
-        <v>1.055743301187359</v>
+        <v>1.0276309537166</v>
       </c>
       <c r="L25">
-        <v>1.053865188426561</v>
+        <v>1.012430187374898</v>
       </c>
       <c r="M25">
-        <v>1.06249140691665</v>
+        <v>1.032679007529325</v>
       </c>
       <c r="N25">
-        <v>1.019049402771735</v>
+        <v>1.009169699196563</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034435607017288</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030656415655863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9962448061086969</v>
+        <v>0.996612644106475</v>
       </c>
       <c r="D2">
-        <v>1.018747274025737</v>
+        <v>1.018802790567683</v>
       </c>
       <c r="E2">
-        <v>1.004445929929328</v>
+        <v>1.004811240379558</v>
       </c>
       <c r="F2">
-        <v>1.024265468596831</v>
+        <v>1.024396892465653</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047031577297482</v>
+        <v>1.047063992083749</v>
       </c>
       <c r="J2">
-        <v>1.018538417448913</v>
+        <v>1.018895144605479</v>
       </c>
       <c r="K2">
-        <v>1.029951464722246</v>
+        <v>1.03000624320909</v>
       </c>
       <c r="L2">
-        <v>1.015843671444402</v>
+        <v>1.016203951473307</v>
       </c>
       <c r="M2">
-        <v>1.035396789011066</v>
+        <v>1.035526489363682</v>
       </c>
       <c r="N2">
-        <v>1.010114264155809</v>
+        <v>1.012229425762889</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036586563864225</v>
+        <v>1.036689213551067</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032248455481074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032296036601027</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020125998835309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000040130260623</v>
+        <v>1.000257656133158</v>
       </c>
       <c r="D3">
-        <v>1.021230234786348</v>
+        <v>1.021097374824708</v>
       </c>
       <c r="E3">
-        <v>1.007735635909478</v>
+        <v>1.007951916759248</v>
       </c>
       <c r="F3">
-        <v>1.027025801699908</v>
+        <v>1.027087968074474</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047855733236522</v>
+        <v>1.047793990809967</v>
       </c>
       <c r="J3">
-        <v>1.020529701344471</v>
+        <v>1.02074129964614</v>
       </c>
       <c r="K3">
-        <v>1.031598490239917</v>
+        <v>1.031467243796917</v>
       </c>
       <c r="L3">
-        <v>1.018270485476635</v>
+        <v>1.018484052433392</v>
       </c>
       <c r="M3">
-        <v>1.037324176882543</v>
+        <v>1.037385598986605</v>
       </c>
       <c r="N3">
-        <v>1.010786718508401</v>
+        <v>1.012724772036853</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0381119688439</v>
+        <v>1.038160580481135</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033410378431235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033326142838727</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020413409494851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002451590028776</v>
+        <v>1.002574722964745</v>
       </c>
       <c r="D4">
-        <v>1.022809571244734</v>
+        <v>1.022557749517158</v>
       </c>
       <c r="E4">
-        <v>1.009831372489473</v>
+        <v>1.009953887086836</v>
       </c>
       <c r="F4">
-        <v>1.028785646927805</v>
+        <v>1.028804269148313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048366112442379</v>
+        <v>1.048244805471975</v>
       </c>
       <c r="J4">
-        <v>1.021792791106629</v>
+        <v>1.021912795590738</v>
       </c>
       <c r="K4">
-        <v>1.032640283669392</v>
+        <v>1.032391337066678</v>
       </c>
       <c r="L4">
-        <v>1.019812572137909</v>
+        <v>1.019933643747394</v>
       </c>
       <c r="M4">
-        <v>1.03854863753553</v>
+        <v>1.038567050240856</v>
       </c>
       <c r="N4">
-        <v>1.011213233093454</v>
+        <v>1.013039128022825</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03908104992128</v>
+        <v>1.039095622371623</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03414793106056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033980550544521</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020592657938042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003457770285086</v>
+        <v>1.00354176008218</v>
       </c>
       <c r="D5">
-        <v>1.023470776013806</v>
+        <v>1.023169541558814</v>
       </c>
       <c r="E5">
-        <v>1.010707456892701</v>
+        <v>1.010791048915752</v>
       </c>
       <c r="F5">
-        <v>1.029520506285868</v>
+        <v>1.029521067929196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048577045588638</v>
+        <v>1.04843097274717</v>
       </c>
       <c r="J5">
-        <v>1.022320499135412</v>
+        <v>1.022402418724677</v>
       </c>
       <c r="K5">
-        <v>1.033076235709504</v>
+        <v>1.032778349597033</v>
       </c>
       <c r="L5">
-        <v>1.020456944322202</v>
+        <v>1.020539578448363</v>
       </c>
       <c r="M5">
-        <v>1.03905923029662</v>
+        <v>1.039059785789073</v>
       </c>
       <c r="N5">
-        <v>1.011391781944325</v>
+        <v>1.013170794782966</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039485150541188</v>
+        <v>1.039485590176841</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034463415117886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034262139503671</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020667505016258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003629406780775</v>
+        <v>1.003706720712265</v>
       </c>
       <c r="D6">
-        <v>1.023585844133398</v>
+        <v>1.023276257426643</v>
       </c>
       <c r="E6">
-        <v>1.010857387042626</v>
+        <v>1.010934338490466</v>
       </c>
       <c r="F6">
-        <v>1.029644936275511</v>
+        <v>1.029642427957816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048614312842125</v>
+        <v>1.048464052428227</v>
       </c>
       <c r="J6">
-        <v>1.022411969141347</v>
+        <v>1.022487387208378</v>
       </c>
       <c r="K6">
-        <v>1.033153478461664</v>
+        <v>1.032847317277347</v>
       </c>
       <c r="L6">
-        <v>1.020567993240813</v>
+        <v>1.020644066993047</v>
       </c>
       <c r="M6">
-        <v>1.039146036885576</v>
+        <v>1.039143555912358</v>
       </c>
       <c r="N6">
-        <v>1.011423172795684</v>
+        <v>1.013193980956928</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039553852229756</v>
+        <v>1.039551888703213</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034526842740989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034320583863598</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020681288529435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00247389433437</v>
+        <v>1.002604145128686</v>
       </c>
       <c r="D7">
-        <v>1.022830239087955</v>
+        <v>1.022582883116819</v>
       </c>
       <c r="E7">
-        <v>1.009851883888286</v>
+        <v>1.009981481144759</v>
       </c>
       <c r="F7">
-        <v>1.028799226667874</v>
+        <v>1.028820876035406</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048374735132264</v>
+        <v>1.04825576160235</v>
       </c>
       <c r="J7">
-        <v>1.021808461043968</v>
+        <v>1.021935403983706</v>
       </c>
       <c r="K7">
-        <v>1.032657803952781</v>
+        <v>1.032413271020111</v>
       </c>
       <c r="L7">
-        <v>1.019829879893031</v>
+        <v>1.019957951343163</v>
       </c>
       <c r="M7">
-        <v>1.038559175403569</v>
+        <v>1.038580581288087</v>
       </c>
       <c r="N7">
-        <v>1.011219741322052</v>
+        <v>1.013072139503535</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039089389953702</v>
+        <v>1.039106331309114</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034180583731902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034018321170052</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020598743839582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9975477334194491</v>
+        <v>0.9978883764230728</v>
       </c>
       <c r="D8">
-        <v>1.019606570353994</v>
+        <v>1.019614073836784</v>
       </c>
       <c r="E8">
-        <v>1.005575483231823</v>
+        <v>1.005913920901308</v>
       </c>
       <c r="F8">
-        <v>1.025208429381408</v>
+        <v>1.025326534389565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047321931866875</v>
+        <v>1.0473306782333</v>
       </c>
       <c r="J8">
-        <v>1.019227310651707</v>
+        <v>1.019558010215125</v>
       </c>
       <c r="K8">
-        <v>1.03052734941228</v>
+        <v>1.030534756089047</v>
       </c>
       <c r="L8">
-        <v>1.016680457014289</v>
+        <v>1.017014375868981</v>
       </c>
       <c r="M8">
-        <v>1.036057428806612</v>
+        <v>1.036174031016609</v>
       </c>
       <c r="N8">
-        <v>1.010348490164236</v>
+        <v>1.012487605584026</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037109418634637</v>
+        <v>1.037201701896706</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032678757076181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032695105078585</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020233706896915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9884983665822205</v>
+        <v>0.9892082257987626</v>
       </c>
       <c r="D9">
-        <v>1.013691228771033</v>
+        <v>1.01415469669103</v>
       </c>
       <c r="E9">
-        <v>0.9977632660013134</v>
+        <v>0.9984664716064215</v>
       </c>
       <c r="F9">
-        <v>1.018666462752236</v>
+        <v>1.018954280808889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045278944341893</v>
+        <v>1.045515036438149</v>
       </c>
       <c r="J9">
-        <v>1.014463918690532</v>
+        <v>1.01514791071472</v>
       </c>
       <c r="K9">
-        <v>1.026566013236388</v>
+        <v>1.027022223541568</v>
       </c>
       <c r="L9">
-        <v>1.010892737194176</v>
+        <v>1.011584478334584</v>
       </c>
       <c r="M9">
-        <v>1.031463778948778</v>
+        <v>1.031747145017775</v>
       </c>
       <c r="N9">
-        <v>1.008738436594254</v>
+        <v>1.011313135030093</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033473826235525</v>
+        <v>1.033698093658609</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02987457677029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030207994414515</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019527250580655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9822620431691658</v>
+        <v>0.9832676177115504</v>
       </c>
       <c r="D10">
-        <v>1.009633668465785</v>
+        <v>1.010438553708967</v>
       </c>
       <c r="E10">
-        <v>0.992419541719716</v>
+        <v>0.9934134983103691</v>
       </c>
       <c r="F10">
-        <v>1.014369372429504</v>
+        <v>1.014791830346183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043829272635886</v>
+        <v>1.044235559213171</v>
       </c>
       <c r="J10">
-        <v>1.011197538286575</v>
+        <v>1.012161197842104</v>
       </c>
       <c r="K10">
-        <v>1.023831135610384</v>
+        <v>1.024621860334721</v>
       </c>
       <c r="L10">
-        <v>1.006927025950533</v>
+        <v>1.007902701185831</v>
       </c>
       <c r="M10">
-        <v>1.028483941285788</v>
+        <v>1.028899052751098</v>
       </c>
       <c r="N10">
-        <v>1.007640718674155</v>
+        <v>1.010633948915453</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031167356051186</v>
+        <v>1.031495872352526</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027957784495063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028529412536365</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019037654767734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799239218286748</v>
+        <v>0.9810827920140968</v>
       </c>
       <c r="D11">
-        <v>1.008140854776622</v>
+        <v>1.009101179642306</v>
       </c>
       <c r="E11">
-        <v>0.9904802668098821</v>
+        <v>0.9916246051877813</v>
       </c>
       <c r="F11">
-        <v>1.014148137875388</v>
+        <v>1.01463920813283</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043451191197634</v>
+        <v>1.043936047940886</v>
       </c>
       <c r="J11">
-        <v>1.010156413864375</v>
+        <v>1.011264288609602</v>
       </c>
       <c r="K11">
-        <v>1.022910862329467</v>
+        <v>1.023853478077223</v>
       </c>
       <c r="L11">
-        <v>1.005583972430821</v>
+        <v>1.006706216701152</v>
       </c>
       <c r="M11">
-        <v>1.028808083861965</v>
+        <v>1.029290232008459</v>
       </c>
       <c r="N11">
-        <v>1.007341749300638</v>
+        <v>1.010660104798906</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031863444465564</v>
+        <v>1.032244818052693</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027340278438212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028022513668307</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018908321618216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9791646450351594</v>
+        <v>0.980375630177969</v>
       </c>
       <c r="D12">
-        <v>1.007650827917488</v>
+        <v>1.008663415322781</v>
       </c>
       <c r="E12">
-        <v>0.9898701731143055</v>
+        <v>0.9910655256968122</v>
       </c>
       <c r="F12">
-        <v>1.014620120019948</v>
+        <v>1.015134679561815</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043383449362463</v>
+        <v>1.043894927251101</v>
       </c>
       <c r="J12">
-        <v>1.009877740548973</v>
+        <v>1.01103439259169</v>
       </c>
       <c r="K12">
-        <v>1.02263290351245</v>
+        <v>1.023626499069683</v>
       </c>
       <c r="L12">
-        <v>1.005194052346875</v>
+        <v>1.006365921529536</v>
       </c>
       <c r="M12">
-        <v>1.029472481346193</v>
+        <v>1.02997755577479</v>
       </c>
       <c r="N12">
-        <v>1.007287692695595</v>
+        <v>1.010728183194829</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032717430028599</v>
+        <v>1.033116801107548</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027143748709736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027862032730509</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01887832189821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,105 +1121,123 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9795827655781478</v>
+        <v>0.9807594687977748</v>
       </c>
       <c r="D13">
-        <v>1.007915419727602</v>
+        <v>1.008896252560797</v>
       </c>
       <c r="E13">
-        <v>0.990252906743385</v>
+        <v>0.991414529674903</v>
       </c>
       <c r="F13">
-        <v>1.015682800598125</v>
+        <v>1.01618281267185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043564012268607</v>
+        <v>1.044059842508366</v>
       </c>
       <c r="J13">
-        <v>1.010181193872209</v>
+        <v>1.011305357916451</v>
       </c>
       <c r="K13">
-        <v>1.022848997879184</v>
+        <v>1.0238115079321</v>
       </c>
       <c r="L13">
-        <v>1.005524588223791</v>
+        <v>1.006663489352643</v>
       </c>
       <c r="M13">
-        <v>1.030472540206804</v>
+        <v>1.030963391009653</v>
       </c>
       <c r="N13">
-        <v>1.007424822819682</v>
+        <v>1.010801536282699</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033786253592647</v>
+        <v>1.034174279387351</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027294018637287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027990078957483</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01892748020121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.980404732607094</v>
+        <v>0.9815196342557883</v>
       </c>
       <c r="D14">
-        <v>1.008440269752145</v>
+        <v>1.009361999007282</v>
       </c>
       <c r="E14">
-        <v>0.9909665198500593</v>
+        <v>0.9920674389925626</v>
       </c>
       <c r="F14">
-        <v>1.016680516022419</v>
+        <v>1.017153836781815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043799651478279</v>
+        <v>1.044265987474571</v>
       </c>
       <c r="J14">
-        <v>1.010652901688613</v>
+        <v>1.011718737914945</v>
       </c>
       <c r="K14">
-        <v>1.023221513588276</v>
+        <v>1.024126235516433</v>
       </c>
       <c r="L14">
-        <v>1.006078024547608</v>
+        <v>1.007157686032812</v>
       </c>
       <c r="M14">
-        <v>1.031311137775065</v>
+        <v>1.031775903144875</v>
       </c>
       <c r="N14">
-        <v>1.007605952148197</v>
+        <v>1.010855709419991</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03462318540277</v>
+        <v>1.034990540348179</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027558844181511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028214178684857</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018997457661373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808696773621921</v>
+        <v>0.9819509871780445</v>
       </c>
       <c r="D15">
-        <v>1.008741458836768</v>
+        <v>1.009630416181017</v>
       </c>
       <c r="E15">
-        <v>0.9913656018446377</v>
+        <v>0.992433529314218</v>
       </c>
       <c r="F15">
-        <v>1.017085319179368</v>
+        <v>1.017543956374401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043918340004282</v>
+        <v>1.044368275586231</v>
       </c>
       <c r="J15">
-        <v>1.010904485166255</v>
+        <v>1.01193862690802</v>
       </c>
       <c r="K15">
-        <v>1.023429363321908</v>
+        <v>1.0243020423133</v>
       </c>
       <c r="L15">
-        <v>1.006379363467623</v>
+        <v>1.007426832914336</v>
       </c>
       <c r="M15">
-        <v>1.03162188800402</v>
+        <v>1.032072300202937</v>
       </c>
       <c r="N15">
-        <v>1.007695580353687</v>
+        <v>1.010875979287265</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034906472563988</v>
+        <v>1.0352624732256</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02771173562047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028344981040377</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019034662894319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834296314756974</v>
+        <v>0.9843389303439437</v>
       </c>
       <c r="D16">
-        <v>1.010412198714032</v>
+        <v>1.011126927029321</v>
       </c>
       <c r="E16">
-        <v>0.9935493670997519</v>
+        <v>0.9944482632829681</v>
       </c>
       <c r="F16">
-        <v>1.018751569111628</v>
+        <v>1.019133699071102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044518497181426</v>
+        <v>1.044881126556345</v>
       </c>
       <c r="J16">
-        <v>1.012237523935395</v>
+        <v>1.013109164909002</v>
       </c>
       <c r="K16">
-        <v>1.024559835375021</v>
+        <v>1.025262049748193</v>
       </c>
       <c r="L16">
-        <v>1.007999051263191</v>
+        <v>1.008881509913119</v>
       </c>
       <c r="M16">
-        <v>1.032754606919111</v>
+        <v>1.033130184291386</v>
       </c>
       <c r="N16">
-        <v>1.008137076520425</v>
+        <v>1.010976356015915</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03576291108043</v>
+        <v>1.036059771669125</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028514232923455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029027245536519</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019230298571339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984967990499114</v>
+        <v>0.9857861754462164</v>
       </c>
       <c r="D17">
-        <v>1.011423418840254</v>
+        <v>1.01204084548825</v>
       </c>
       <c r="E17">
-        <v>0.994857093989144</v>
+        <v>0.9956663826206312</v>
       </c>
       <c r="F17">
-        <v>1.019505458031714</v>
+        <v>1.019846350134077</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044854374877369</v>
+        <v>1.045168208280475</v>
       </c>
       <c r="J17">
-        <v>1.013016339592954</v>
+        <v>1.013801745080609</v>
       </c>
       <c r="K17">
-        <v>1.025234075513367</v>
+        <v>1.025840998206033</v>
       </c>
       <c r="L17">
-        <v>1.00895590190022</v>
+        <v>1.009750824914886</v>
       </c>
       <c r="M17">
-        <v>1.033179916212801</v>
+        <v>1.033515124722387</v>
       </c>
       <c r="N17">
-        <v>1.008381968924223</v>
+        <v>1.011054905919165</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035969550144767</v>
+        <v>1.036234529269996</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028993566685352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029439447141977</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019344872729347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857492497565954</v>
+        <v>0.9865279465860637</v>
       </c>
       <c r="D18">
-        <v>1.011937114739619</v>
+        <v>1.012508960242622</v>
       </c>
       <c r="E18">
-        <v>0.9955066493713035</v>
+        <v>0.9962771282695105</v>
       </c>
       <c r="F18">
-        <v>1.01943388557178</v>
+        <v>1.01975611120364</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044974976611346</v>
+        <v>1.045265791523348</v>
       </c>
       <c r="J18">
-        <v>1.013361658291388</v>
+        <v>1.014109754279136</v>
       </c>
       <c r="K18">
-        <v>1.025552930871068</v>
+        <v>1.02611521041382</v>
       </c>
       <c r="L18">
-        <v>1.009403397291931</v>
+        <v>1.010160434252428</v>
       </c>
       <c r="M18">
-        <v>1.032925389622985</v>
+        <v>1.033242324765855</v>
       </c>
       <c r="N18">
-        <v>1.008468626432506</v>
+        <v>1.011075263675516</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035529561495104</v>
+        <v>1.035780148323786</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029207261470789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029620442122535</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019391435283569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.985822344387322</v>
+        <v>0.986604765498852</v>
       </c>
       <c r="D19">
-        <v>1.011985661866057</v>
+        <v>1.012558107114976</v>
       </c>
       <c r="E19">
-        <v>0.9955371101716083</v>
+        <v>0.9963113519165097</v>
       </c>
       <c r="F19">
-        <v>1.018550806055502</v>
+        <v>1.018873743347983</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044888703694474</v>
+        <v>1.045179440506707</v>
       </c>
       <c r="J19">
-        <v>1.013294047722526</v>
+        <v>1.014045908723233</v>
       </c>
       <c r="K19">
-        <v>1.025537213906576</v>
+        <v>1.0261001355793</v>
       </c>
       <c r="L19">
-        <v>1.009368366415012</v>
+        <v>1.010129174320119</v>
       </c>
       <c r="M19">
-        <v>1.031993962185781</v>
+        <v>1.032311613855886</v>
       </c>
       <c r="N19">
-        <v>1.008408914297221</v>
+        <v>1.011020641275137</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034465719608575</v>
+        <v>1.034716955914234</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029202604911991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029616861826825</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019373198011837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9839013127568244</v>
+        <v>0.9848057641189364</v>
       </c>
       <c r="D20">
-        <v>1.010713089141675</v>
+        <v>1.011413020757022</v>
       </c>
       <c r="E20">
-        <v>0.9938248911553187</v>
+        <v>0.9947194158165513</v>
       </c>
       <c r="F20">
-        <v>1.015498017188061</v>
+        <v>1.015875119967295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044224567628612</v>
+        <v>1.044578297206123</v>
       </c>
       <c r="J20">
-        <v>1.012067234243222</v>
+        <v>1.012935229290674</v>
       </c>
       <c r="K20">
-        <v>1.024570141674036</v>
+        <v>1.025258111337637</v>
       </c>
       <c r="L20">
-        <v>1.007977198484565</v>
+        <v>1.008855757827306</v>
       </c>
       <c r="M20">
-        <v>1.029273718908391</v>
+        <v>1.029644452414964</v>
       </c>
       <c r="N20">
-        <v>1.007936850428657</v>
+        <v>1.010744183880028</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.0317817445762</v>
+        <v>1.032075144046307</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028522793067695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029025856541492</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019169999909285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9791294944495006</v>
+        <v>0.9803757749110112</v>
       </c>
       <c r="D21">
-        <v>1.007605323000627</v>
+        <v>1.008644450744703</v>
       </c>
       <c r="E21">
-        <v>0.9897362119494327</v>
+        <v>0.9909666946575652</v>
       </c>
       <c r="F21">
-        <v>1.011953679613225</v>
+        <v>1.012483689055968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043055245087046</v>
+        <v>1.043579140969532</v>
       </c>
       <c r="J21">
-        <v>1.009526482557725</v>
+        <v>1.010717523962883</v>
       </c>
       <c r="K21">
-        <v>1.022444028647737</v>
+        <v>1.023463881428144</v>
       </c>
       <c r="L21">
-        <v>1.004914679368458</v>
+        <v>1.006121250827291</v>
       </c>
       <c r="M21">
-        <v>1.026712070409577</v>
+        <v>1.027232351923352</v>
       </c>
       <c r="N21">
-        <v>1.007073340575173</v>
+        <v>1.010566803048376</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029713120273894</v>
+        <v>1.030124894371387</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027022786104576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027760842717742</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01880062857978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9760860227102657</v>
+        <v>0.9775499883768637</v>
       </c>
       <c r="D22">
-        <v>1.005623630276094</v>
+        <v>1.006878611284475</v>
       </c>
       <c r="E22">
-        <v>0.9871385051843752</v>
+        <v>0.9885822597309499</v>
       </c>
       <c r="F22">
-        <v>1.009792945353934</v>
+        <v>1.010420545387451</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042304910701306</v>
+        <v>1.042936990722205</v>
       </c>
       <c r="J22">
-        <v>1.007912928077057</v>
+        <v>1.009308167265269</v>
       </c>
       <c r="K22">
-        <v>1.021084499123786</v>
+        <v>1.022315022141181</v>
       </c>
       <c r="L22">
-        <v>1.002969130259625</v>
+        <v>1.004383349089258</v>
       </c>
       <c r="M22">
-        <v>1.025172866751686</v>
+        <v>1.025788357671414</v>
       </c>
       <c r="N22">
-        <v>1.006526354326207</v>
+        <v>1.010447900867114</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028494924111621</v>
+        <v>1.028982052029372</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026047872266292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026933593488399</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018562184178769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9776976017924555</v>
+        <v>0.9790331021960164</v>
       </c>
       <c r="D23">
-        <v>1.006667750412775</v>
+        <v>1.007799323399792</v>
       </c>
       <c r="E23">
-        <v>0.988512269008802</v>
+        <v>0.9898301387195885</v>
       </c>
       <c r="F23">
-        <v>1.010938677756987</v>
+        <v>1.011508826518216</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042700555719855</v>
+        <v>1.043270650477526</v>
       </c>
       <c r="J23">
-        <v>1.008764103293611</v>
+        <v>1.010038775082655</v>
       </c>
       <c r="K23">
-        <v>1.021798486673239</v>
+        <v>1.022908572034999</v>
       </c>
       <c r="L23">
-        <v>1.003996609434126</v>
+        <v>1.005288237781702</v>
       </c>
       <c r="M23">
-        <v>1.025988641631057</v>
+        <v>1.026548075051847</v>
       </c>
       <c r="N23">
-        <v>1.006813546836902</v>
+        <v>1.010465581170678</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029140565923715</v>
+        <v>1.029583326950436</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026542962657393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027342584931185</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018683790009021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9839242462583552</v>
+        <v>0.9848286815627343</v>
       </c>
       <c r="D24">
-        <v>1.010717524259413</v>
+        <v>1.011416816199711</v>
       </c>
       <c r="E24">
-        <v>0.9938372553602985</v>
+        <v>0.9947317866859764</v>
       </c>
       <c r="F24">
-        <v>1.01538026651448</v>
+        <v>1.0157572919595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I24">
-        <v>1.04420720759154</v>
+        <v>1.044560555148698</v>
       </c>
       <c r="J24">
-        <v>1.01205547785539</v>
+        <v>1.0129235113241</v>
       </c>
       <c r="K24">
-        <v>1.024559006457138</v>
+        <v>1.025246362863563</v>
       </c>
       <c r="L24">
-        <v>1.007973467003946</v>
+        <v>1.008852054029279</v>
       </c>
       <c r="M24">
-        <v>1.029142565668933</v>
+        <v>1.029513229417673</v>
       </c>
       <c r="N24">
-        <v>1.007926333401032</v>
+        <v>1.010732393200876</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031636721010373</v>
+        <v>1.031930080119941</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028487241808038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028987204923326</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019163274257069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9908958381555677</v>
+        <v>0.991496658101939</v>
       </c>
       <c r="D25">
-        <v>1.015265075230321</v>
+        <v>1.015600575879857</v>
       </c>
       <c r="E25">
-        <v>0.9998292196833836</v>
+        <v>1.000424883872058</v>
       </c>
       <c r="F25">
-        <v>1.020389171772988</v>
+        <v>1.020627278695128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045837489578351</v>
+        <v>1.046009745829733</v>
       </c>
       <c r="J25">
-        <v>1.015733526805494</v>
+        <v>1.016313621936905</v>
       </c>
       <c r="K25">
-        <v>1.0276309537166</v>
+        <v>1.027961445603434</v>
       </c>
       <c r="L25">
-        <v>1.012430187374898</v>
+        <v>1.013016607644405</v>
       </c>
       <c r="M25">
-        <v>1.032679007529325</v>
+        <v>1.032913604471855</v>
       </c>
       <c r="N25">
-        <v>1.009169699196563</v>
+        <v>1.011594493439688</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034435607017288</v>
+        <v>1.034621276323131</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030656415655863</v>
+        <v>1.030903737175903</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019719678296414</v>
       </c>
     </row>
   </sheetData>
